--- a/External Beam Templates/Structure Templates/Template Spreadsheets/Pelvis Templates.xlsx
+++ b/External Beam Templates/Structure Templates/Template Spreadsheets/Pelvis Templates.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\OneDrive - Queen's University\Work\Structure Dictionary\Template Spreadsheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-3345" yWindow="900" windowWidth="27030" windowHeight="9885" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-3345" yWindow="900" windowWidth="27030" windowHeight="9885" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Pelvis Anatomy General" sheetId="1" r:id="rId1"/>
@@ -23,12 +28,12 @@
   <externalReferences>
     <externalReference r:id="rId13"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="302">
   <si>
     <t>Sacral plexus</t>
   </si>
@@ -928,6 +933,12 @@
   </si>
   <si>
     <t>Two Phase VMAT Prostate 76 Gy</t>
+  </si>
+  <si>
+    <t>Left Vessels as surrogate for Nodes</t>
+  </si>
+  <si>
+    <t>Right Vessels as surrogate for Nodes</t>
   </si>
 </sst>
 </file>
@@ -4681,7 +4692,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4716,7 +4727,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10489,7 +10500,7 @@
       </c>
       <c r="P8" s="14" t="str">
         <f>VLOOKUP(D8,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV low</v>
+        <v>z CTV int</v>
       </c>
       <c r="Q8" s="12" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -14665,8 +14676,8 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15603,7 +15614,7 @@
         <v>103</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="21"/>
@@ -15664,7 +15675,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>110</v>
+        <v>301</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="21"/>
@@ -15724,8 +15735,8 @@
       <c r="E17" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>83</v>
+      <c r="F17" s="47" t="s">
+        <v>81</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="21"/>
@@ -15786,7 +15797,7 @@
         <v>82</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="21"/>
@@ -17549,7 +17560,7 @@
   </sheetPr>
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -21889,7 +21900,7 @@
       </c>
       <c r="P18" s="14" t="str">
         <f>VLOOKUP(D18,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV low</v>
+        <v>z CTV int</v>
       </c>
       <c r="Q18" s="12" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],2,FALSE),"")</f>

--- a/External Beam Templates/Structure Templates/Template Spreadsheets/Pelvis Templates.xlsx
+++ b/External Beam Templates/Structure Templates/Template Spreadsheets/Pelvis Templates.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\OneDrive - Queen's University\Work\Structure Dictionary\Template Spreadsheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-3345" yWindow="900" windowWidth="27030" windowHeight="9885" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-3345" yWindow="900" windowWidth="27030" windowHeight="9885" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Pelvis Anatomy General" sheetId="1" r:id="rId1"/>
@@ -22,18 +17,20 @@
     <sheet name="Gyne" sheetId="8" r:id="rId8"/>
     <sheet name="Prostate" sheetId="9" r:id="rId9"/>
     <sheet name="Prostate 2Ph VMAT" sheetId="12" r:id="rId10"/>
-    <sheet name="VMAT ANUS" sheetId="10" r:id="rId11"/>
-    <sheet name="Gyne VMAT" sheetId="11" r:id="rId12"/>
+    <sheet name="Prostate SIB 70 in 28" sheetId="13" r:id="rId11"/>
+    <sheet name="Prostate SIB 68 in 25" sheetId="14" r:id="rId12"/>
+    <sheet name="VMAT ANUS" sheetId="10" r:id="rId13"/>
+    <sheet name="Gyne VMAT" sheetId="11" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="319">
   <si>
     <t>Sacral plexus</t>
   </si>
@@ -939,6 +936,57 @@
   </si>
   <si>
     <t>Right Vessels as surrogate for Nodes</t>
+  </si>
+  <si>
+    <t>Prostate SingleIntegrated Boost 70 Gy in 28 fractions</t>
+  </si>
+  <si>
+    <t>Prostate_SIB70in28.xml</t>
+  </si>
+  <si>
+    <t>CTV70</t>
+  </si>
+  <si>
+    <t>CTV48</t>
+  </si>
+  <si>
+    <t>PTV70</t>
+  </si>
+  <si>
+    <t>PTV48</t>
+  </si>
+  <si>
+    <t>opt PTV70</t>
+  </si>
+  <si>
+    <t>opt PTV48a</t>
+  </si>
+  <si>
+    <t>opt PTV48</t>
+  </si>
+  <si>
+    <t>opt PTV48b</t>
+  </si>
+  <si>
+    <t>eval PTV70</t>
+  </si>
+  <si>
+    <t>eval PTV48</t>
+  </si>
+  <si>
+    <t>Body outside of PTV</t>
+  </si>
+  <si>
+    <t>Prostate Single Integrated Boost 68 Gy in 25 fractions</t>
+  </si>
+  <si>
+    <t>Prostate_SIB68in25.xml</t>
+  </si>
+  <si>
+    <t>Prostate SIB 70 in 28</t>
+  </si>
+  <si>
+    <t>Prostate SIB 68 in 25</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1451,517 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="148">
+  <dxfs count="174">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -4358,6 +4916,7 @@
       <sheetName val="ICD-10 Codes"/>
       <sheetName val="Color Chart"/>
       <sheetName val="Original Structure colors"/>
+      <sheetName val="ColourTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4371,13 +4930,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table33132343155" displayName="Table33132343155" ref="A2:B13" totalsRowShown="0" headerRowDxfId="147" headerRowBorderDxfId="146" tableBorderDxfId="145" totalsRowBorderDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table33132343155" displayName="Table33132343155" ref="A2:B13" totalsRowShown="0" headerRowDxfId="173" headerRowBorderDxfId="172" tableBorderDxfId="171" totalsRowBorderDxfId="170">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
     <tableColumn id="2" name="Value"/>
@@ -4387,7 +4947,53 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table5333539494450" displayName="Table5333539494450" ref="D2:H21" totalsRowShown="0" headerRowDxfId="99" headerRowBorderDxfId="98" tableBorderDxfId="97" totalsRowBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table5333539494450" displayName="Table5333539494450" ref="D2:H21" totalsRowShown="0" headerRowDxfId="125" headerRowBorderDxfId="124" tableBorderDxfId="123" totalsRowBorderDxfId="122">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Structure" dataDxfId="121"/>
+    <tableColumn id="2" name="ID" dataDxfId="120"/>
+    <tableColumn id="3" name="Name" dataDxfId="119"/>
+    <tableColumn id="4" name="VolumeCode" dataDxfId="118"/>
+    <tableColumn id="5" name="VolumeCodeTable" dataDxfId="117"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table33132343848434751" displayName="Table33132343848434751" ref="A2:B13" totalsRowShown="0" headerRowDxfId="116" headerRowBorderDxfId="115" tableBorderDxfId="114" totalsRowBorderDxfId="113">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Attribute"/>
+    <tableColumn id="2" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table533353949445052" displayName="Table533353949445052" ref="D2:H23" totalsRowShown="0" headerRowDxfId="112" headerRowBorderDxfId="111" tableBorderDxfId="110" totalsRowBorderDxfId="109">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Structure" dataDxfId="108"/>
+    <tableColumn id="2" name="ID" dataDxfId="107"/>
+    <tableColumn id="3" name="Name" dataDxfId="106"/>
+    <tableColumn id="4" name="VolumeCode" dataDxfId="105"/>
+    <tableColumn id="5" name="VolumeCodeTable" dataDxfId="104"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table3313234384843475179" displayName="Table3313234384843475179" ref="A2:B13" totalsRowShown="0" headerRowDxfId="103" headerRowBorderDxfId="102" tableBorderDxfId="101" totalsRowBorderDxfId="100">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Attribute"/>
+    <tableColumn id="2" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table53335394944505280" displayName="Table53335394944505280" ref="D2:H28" totalsRowShown="0" headerRowDxfId="99" headerRowBorderDxfId="98" tableBorderDxfId="97" totalsRowBorderDxfId="96">
   <tableColumns count="5">
     <tableColumn id="1" name="Structure" dataDxfId="95"/>
     <tableColumn id="2" name="ID" dataDxfId="94"/>
@@ -4399,8 +5005,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table33132343848434751" displayName="Table33132343848434751" ref="A2:B13" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88" totalsRowBorderDxfId="87">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table3313234384843" displayName="Table3313234384843" ref="A2:B13" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88" totalsRowBorderDxfId="87">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
     <tableColumn id="2" name="Value"/>
@@ -4409,8 +5015,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table533353949445052" displayName="Table533353949445052" ref="D2:H23" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84" totalsRowBorderDxfId="83">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table53335394944" displayName="Table53335394944" ref="D2:H21" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84" totalsRowBorderDxfId="83">
   <tableColumns count="5">
     <tableColumn id="1" name="Structure" dataDxfId="82"/>
     <tableColumn id="2" name="ID" dataDxfId="81"/>
@@ -4422,8 +5028,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table3313234384843475179" displayName="Table3313234384843475179" ref="A2:B13" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table33132343848" displayName="Table33132343848" ref="A2:B13" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75" totalsRowBorderDxfId="74">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
     <tableColumn id="2" name="Value"/>
@@ -4432,8 +5038,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table53335394944505280" displayName="Table53335394944505280" ref="D2:H28" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table533353949" displayName="Table533353949" ref="D2:H27" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
   <tableColumns count="5">
     <tableColumn id="1" name="Structure" dataDxfId="69"/>
     <tableColumn id="2" name="ID" dataDxfId="68"/>
@@ -4445,8 +5051,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table3313234384843" displayName="Table3313234384843" ref="A2:B13" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table3313234384824" displayName="Table3313234384824" ref="A2:B13" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
     <tableColumn id="2" name="Value"/>
@@ -4455,8 +5061,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table53335394944" displayName="Table53335394944" ref="D2:H21" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table533353756" displayName="Table533353756" ref="D2:F21" totalsRowShown="0" headerRowDxfId="169" headerRowBorderDxfId="168" tableBorderDxfId="167" totalsRowBorderDxfId="166">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Structure" dataDxfId="165"/>
+    <tableColumn id="2" name="ID" dataDxfId="164"/>
+    <tableColumn id="3" name="Name" dataDxfId="163"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table53335394925" displayName="Table53335394925" ref="D2:H32" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <tableColumns count="5">
     <tableColumn id="1" name="Structure" dataDxfId="56"/>
     <tableColumn id="2" name="ID" dataDxfId="55"/>
@@ -4468,8 +5085,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table33132343848" displayName="Table33132343848" ref="A2:B13" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="48">
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table331323438482426" displayName="Table331323438482426" ref="A2:B13" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="48">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
     <tableColumn id="2" name="Value"/>
@@ -4478,8 +5095,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table533353949" displayName="Table533353949" ref="D2:H27" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table5333539492527" displayName="Table5333539492527" ref="D2:H35" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <tableColumns count="5">
     <tableColumn id="1" name="Structure" dataDxfId="43"/>
     <tableColumn id="2" name="ID" dataDxfId="42"/>
@@ -4491,8 +5108,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table3313234384824" displayName="Table3313234384824" ref="A2:B13" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table33132343848242628" displayName="Table33132343848242628" ref="A2:B13" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
     <tableColumn id="2" name="Value"/>
@@ -4501,19 +5118,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table533353756" displayName="Table533353756" ref="D2:F21" totalsRowShown="0" headerRowDxfId="143" headerRowBorderDxfId="142" tableBorderDxfId="141" totalsRowBorderDxfId="140">
-  <tableColumns count="3">
-    <tableColumn id="1" name="Structure" dataDxfId="139"/>
-    <tableColumn id="2" name="ID" dataDxfId="138"/>
-    <tableColumn id="3" name="Name" dataDxfId="137"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table53335394925" displayName="Table53335394925" ref="D2:H32" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table533353949252729" displayName="Table533353949252729" ref="D2:H35" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <tableColumns count="5">
     <tableColumn id="1" name="Structure" dataDxfId="30"/>
     <tableColumn id="2" name="ID" dataDxfId="29"/>
@@ -4525,7 +5131,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table3313234384853" displayName="Table3313234384853" ref="A2:B13" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
@@ -4535,7 +5141,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table53335394954" displayName="Table53335394954" ref="D2:H24" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="5">
     <tableColumn id="1" name="Structure" dataDxfId="17"/>
@@ -4548,7 +5154,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table331323438484389" displayName="Table331323438484389" ref="A2:B13" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
@@ -4558,7 +5164,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table5333539494490" displayName="Table5333539494490" ref="D2:H38" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <sortState ref="D3:H40">
     <sortCondition ref="E3:E40"/>
@@ -4577,7 +5183,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table33132343155596163" displayName="Table33132343155596163" ref="A2:B13" totalsRowShown="0" headerRowDxfId="136" headerRowBorderDxfId="135" tableBorderDxfId="134" totalsRowBorderDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table33132343155596163" displayName="Table33132343155596163" ref="A2:B13" totalsRowShown="0" headerRowDxfId="162" headerRowBorderDxfId="161" tableBorderDxfId="160" totalsRowBorderDxfId="159">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
     <tableColumn id="2" name="Value"/>
@@ -4587,18 +5193,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table533353756606264" displayName="Table533353756606264" ref="D2:F8" totalsRowShown="0" headerRowDxfId="132" headerRowBorderDxfId="131" tableBorderDxfId="130" totalsRowBorderDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table533353756606264" displayName="Table533353756606264" ref="D2:F8" totalsRowShown="0" headerRowDxfId="158" headerRowBorderDxfId="157" tableBorderDxfId="156" totalsRowBorderDxfId="155">
   <tableColumns count="3">
-    <tableColumn id="1" name="Structure" dataDxfId="128"/>
-    <tableColumn id="2" name="ID" dataDxfId="127"/>
-    <tableColumn id="3" name="Name" dataDxfId="126"/>
+    <tableColumn id="1" name="Structure" dataDxfId="154"/>
+    <tableColumn id="2" name="ID" dataDxfId="153"/>
+    <tableColumn id="3" name="Name" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table331323431555961" displayName="Table331323431555961" ref="A2:B13" totalsRowShown="0" headerRowDxfId="125" headerRowBorderDxfId="124" tableBorderDxfId="123" totalsRowBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table331323431555961" displayName="Table331323431555961" ref="A2:B13" totalsRowShown="0" headerRowDxfId="151" headerRowBorderDxfId="150" tableBorderDxfId="149" totalsRowBorderDxfId="148">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
     <tableColumn id="2" name="Value"/>
@@ -4608,18 +5214,18 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table5333537566062" displayName="Table5333537566062" ref="D2:F8" totalsRowShown="0" headerRowDxfId="121" headerRowBorderDxfId="120" tableBorderDxfId="119" totalsRowBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table5333537566062" displayName="Table5333537566062" ref="D2:F8" totalsRowShown="0" headerRowDxfId="147" headerRowBorderDxfId="146" tableBorderDxfId="145" totalsRowBorderDxfId="144">
   <tableColumns count="3">
-    <tableColumn id="1" name="Structure" dataDxfId="117"/>
-    <tableColumn id="2" name="ID" dataDxfId="116"/>
-    <tableColumn id="3" name="Name" dataDxfId="115"/>
+    <tableColumn id="1" name="Structure" dataDxfId="143"/>
+    <tableColumn id="2" name="ID" dataDxfId="142"/>
+    <tableColumn id="3" name="Name" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table3313234315559" displayName="Table3313234315559" ref="A2:B13" totalsRowShown="0" headerRowDxfId="114" headerRowBorderDxfId="113" tableBorderDxfId="112" totalsRowBorderDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table3313234315559" displayName="Table3313234315559" ref="A2:B13" totalsRowShown="0" headerRowDxfId="140" headerRowBorderDxfId="139" tableBorderDxfId="138" totalsRowBorderDxfId="137">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
     <tableColumn id="2" name="Value"/>
@@ -4629,18 +5235,18 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table53335375660" displayName="Table53335375660" ref="D2:F13" totalsRowShown="0" headerRowDxfId="110" headerRowBorderDxfId="109" tableBorderDxfId="108" totalsRowBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table53335375660" displayName="Table53335375660" ref="D2:F13" totalsRowShown="0" headerRowDxfId="136" headerRowBorderDxfId="135" tableBorderDxfId="134" totalsRowBorderDxfId="133">
   <tableColumns count="3">
-    <tableColumn id="1" name="Structure" dataDxfId="106"/>
-    <tableColumn id="2" name="ID" dataDxfId="105"/>
-    <tableColumn id="3" name="Name" dataDxfId="104"/>
+    <tableColumn id="1" name="Structure" dataDxfId="132"/>
+    <tableColumn id="2" name="ID" dataDxfId="131"/>
+    <tableColumn id="3" name="Name" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table331323438484347" displayName="Table331323438484347" ref="A2:B13" totalsRowShown="0" headerRowDxfId="103" headerRowBorderDxfId="102" tableBorderDxfId="101" totalsRowBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table331323438484347" displayName="Table331323438484347" ref="A2:B13" totalsRowShown="0" headerRowDxfId="129" headerRowBorderDxfId="128" tableBorderDxfId="127" totalsRowBorderDxfId="126">
   <tableColumns count="2">
     <tableColumn id="1" name="Attribute"/>
     <tableColumn id="2" name="Value"/>
@@ -4692,7 +5298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4727,7 +5333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8425,6 +9031,4478 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="46" customWidth="1"/>
+    <col min="4" max="5" width="15" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" style="46" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="J1" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="52"/>
+      <c r="P1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="52"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="50"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="21"/>
+      <c r="J3" s="19" t="str">
+        <f>VLOOKUP(D3,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Body</v>
+      </c>
+      <c r="K3" s="18" t="str">
+        <f>VLOOKUP(D3,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>BODY</v>
+      </c>
+      <c r="L3" s="18" t="str">
+        <f>VLOOKUP(D3,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M3" s="17" t="str">
+        <f>VLOOKUP(D3,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N3" s="16" t="str">
+        <f>VLOOKUP(D3,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Special</v>
+      </c>
+      <c r="O3" s="15" t="str">
+        <f>VLOOKUP(D3,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>BODY</v>
+      </c>
+      <c r="P3" s="14" t="str">
+        <f>VLOOKUP(D3,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Body</v>
+      </c>
+      <c r="Q3" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R3" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S3" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T3" s="12">
+        <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v>-350</v>
+      </c>
+      <c r="U3" s="11">
+        <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="19" t="str">
+        <f>VLOOKUP(D4,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Treated Volume</v>
+      </c>
+      <c r="K4" s="18" t="str">
+        <f>VLOOKUP(D4,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>Treated Volume</v>
+      </c>
+      <c r="L4" s="18" t="str">
+        <f>VLOOKUP(D4,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M4" s="17" t="str">
+        <f>VLOOKUP(D4,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N4" s="16" t="str">
+        <f>VLOOKUP(D4,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Special</v>
+      </c>
+      <c r="O4" s="15" t="str">
+        <f>VLOOKUP(D4,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P4" s="14" t="str">
+        <f>VLOOKUP(D4,[1]!Colors[#All],3,FALSE)</f>
+        <v>z DPV</v>
+      </c>
+      <c r="Q4" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R4" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S4" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T4" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U4" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="21"/>
+      <c r="J5" s="19" t="str">
+        <f>VLOOKUP(D5,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Control Region</v>
+      </c>
+      <c r="K5" s="18" t="str">
+        <f>VLOOKUP(D5,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="L5" s="18" t="str">
+        <f>VLOOKUP(D5,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M5" s="17" t="str">
+        <f>VLOOKUP(D5,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N5" s="16" t="str">
+        <f>VLOOKUP(D5,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="O5" s="15" t="str">
+        <f>VLOOKUP(D5,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="P5" s="14" t="str">
+        <f>VLOOKUP(D5,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Avoid a</v>
+      </c>
+      <c r="Q5" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R5" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S5" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T5" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U5" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="46">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="21"/>
+      <c r="J6" s="19" t="str">
+        <f>VLOOKUP(D6,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Control Region</v>
+      </c>
+      <c r="K6" s="18" t="str">
+        <f>VLOOKUP(D6,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="L6" s="18" t="str">
+        <f>VLOOKUP(D6,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M6" s="17" t="str">
+        <f>VLOOKUP(D6,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N6" s="16" t="str">
+        <f>VLOOKUP(D6,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="O6" s="15" t="str">
+        <f>VLOOKUP(D6,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="P6" s="14" t="str">
+        <f>VLOOKUP(D6,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Avoid b</v>
+      </c>
+      <c r="Q6" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R6" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S6" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T6" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U6" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="21"/>
+      <c r="J7" s="19" t="str">
+        <f>VLOOKUP(D7,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Urinary bladder</v>
+      </c>
+      <c r="K7" s="18">
+        <f>VLOOKUP(D7,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>15900</v>
+      </c>
+      <c r="L7" s="18" t="str">
+        <f>VLOOKUP(D7,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M7" s="17" t="str">
+        <f>VLOOKUP(D7,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N7" s="16" t="str">
+        <f>VLOOKUP(D7,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="O7" s="15" t="str">
+        <f>VLOOKUP(D7,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="P7" s="14" t="str">
+        <f>VLOOKUP(D7,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Bladder</v>
+      </c>
+      <c r="Q7" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R7" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T7" s="12">
+        <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v>20</v>
+      </c>
+      <c r="U7" s="11">
+        <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="21"/>
+      <c r="J8" s="19" t="str">
+        <f>VLOOKUP(D8,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Bladder sub PTVs</v>
+      </c>
+      <c r="K8" s="18" t="str">
+        <f>VLOOKUP(D8,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>bladder-ptvs</v>
+      </c>
+      <c r="L8" s="18" t="str">
+        <f>VLOOKUP(D8,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M8" s="17" t="str">
+        <f>VLOOKUP(D8,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N8" s="16" t="str">
+        <f>VLOOKUP(D8,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="O8" s="15" t="str">
+        <f>VLOOKUP(D8,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Avoidance</v>
+      </c>
+      <c r="P8" s="14" t="str">
+        <f>VLOOKUP(D8,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Bladder</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R8" s="13">
+        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S8" s="11">
+        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="T8" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U8" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="21"/>
+      <c r="J9" s="19" t="str">
+        <f>VLOOKUP(D9,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Rectum</v>
+      </c>
+      <c r="K9" s="18">
+        <f>VLOOKUP(D9,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>14544</v>
+      </c>
+      <c r="L9" s="18" t="str">
+        <f>VLOOKUP(D9,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M9" s="17" t="str">
+        <f>VLOOKUP(D9,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N9" s="16" t="str">
+        <f>VLOOKUP(D9,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="O9" s="15" t="str">
+        <f>VLOOKUP(D9,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="P9" s="14" t="str">
+        <f>VLOOKUP(D9,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Rectum</v>
+      </c>
+      <c r="Q9" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R9" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S9" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T9" s="12">
+        <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v>-20</v>
+      </c>
+      <c r="U9" s="11">
+        <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="21"/>
+      <c r="J10" s="19" t="str">
+        <f>VLOOKUP(D10,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Rectum</v>
+      </c>
+      <c r="K10" s="18">
+        <f>VLOOKUP(D10,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>14544</v>
+      </c>
+      <c r="L10" s="18" t="str">
+        <f>VLOOKUP(D10,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M10" s="17" t="str">
+        <f>VLOOKUP(D10,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N10" s="16" t="str">
+        <f>VLOOKUP(D10,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="O10" s="15" t="str">
+        <f>VLOOKUP(D10,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Avoidance</v>
+      </c>
+      <c r="P10" s="14" t="str">
+        <f>VLOOKUP(D10,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Rectum</v>
+      </c>
+      <c r="Q10" s="12">
+        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R10" s="13">
+        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="11">
+        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="T10" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U10" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="21"/>
+      <c r="J11" s="19" t="str">
+        <f>VLOOKUP(D11,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Head of right femur</v>
+      </c>
+      <c r="K11" s="18">
+        <f>VLOOKUP(D11,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>55011</v>
+      </c>
+      <c r="L11" s="18" t="str">
+        <f>VLOOKUP(D11,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M11" s="17" t="str">
+        <f>VLOOKUP(D11,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N11" s="16" t="str">
+        <f>VLOOKUP(D11,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="O11" s="15" t="str">
+        <f>VLOOKUP(D11,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="P11" s="14" t="str">
+        <f>VLOOKUP(D11,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Femoral Head R</v>
+      </c>
+      <c r="Q11" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R11" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S11" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T11" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U11" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="21"/>
+      <c r="J12" s="19" t="str">
+        <f>VLOOKUP(D12,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Head of left femur</v>
+      </c>
+      <c r="K12" s="18">
+        <f>VLOOKUP(D12,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>55012</v>
+      </c>
+      <c r="L12" s="18" t="str">
+        <f>VLOOKUP(D12,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M12" s="17" t="str">
+        <f>VLOOKUP(D12,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N12" s="16" t="str">
+        <f>VLOOKUP(D12,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="O12" s="15" t="str">
+        <f>VLOOKUP(D12,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="P12" s="14" t="str">
+        <f>VLOOKUP(D12,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Femoral Head L</v>
+      </c>
+      <c r="Q12" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R12" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S12" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T12" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U12" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="21"/>
+      <c r="J13" s="19" t="str">
+        <f>VLOOKUP(D13,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Small intestine</v>
+      </c>
+      <c r="K13" s="18">
+        <f>VLOOKUP(D13,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>7200</v>
+      </c>
+      <c r="L13" s="18" t="str">
+        <f>VLOOKUP(D13,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M13" s="17" t="str">
+        <f>VLOOKUP(D13,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N13" s="16" t="str">
+        <f>VLOOKUP(D13,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="O13" s="15" t="str">
+        <f>VLOOKUP(D13,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="P13" s="14" t="str">
+        <f>VLOOKUP(D13,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Small Bowel</v>
+      </c>
+      <c r="Q13" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R13" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S13" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T13" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U13" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="D14" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="21"/>
+      <c r="J14" s="19" t="str">
+        <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Left internal iliac lymphatic chain</v>
+      </c>
+      <c r="K14" s="18">
+        <f>VLOOKUP(D14,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>224279</v>
+      </c>
+      <c r="L14" s="18" t="str">
+        <f>VLOOKUP(D14,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M14" s="17" t="str">
+        <f>VLOOKUP(D14,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N14" s="16" t="str">
+        <f>VLOOKUP(D14,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O14" s="15" t="str">
+        <f>VLOOKUP(D14,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Nodes</v>
+      </c>
+      <c r="P14" s="14" t="str">
+        <f>VLOOKUP(D14,[1]!Colors[#All],3,FALSE)</f>
+        <v>zNode Intiliac L</v>
+      </c>
+      <c r="Q14" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R14" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T14" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U14" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D15" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="21"/>
+      <c r="J15" s="19" t="str">
+        <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Right internal iliac lymphatic chain</v>
+      </c>
+      <c r="K15" s="18">
+        <f>VLOOKUP(D15,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>224277</v>
+      </c>
+      <c r="L15" s="18" t="str">
+        <f>VLOOKUP(D15,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M15" s="17" t="str">
+        <f>VLOOKUP(D15,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N15" s="16" t="str">
+        <f>VLOOKUP(D15,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O15" s="15" t="str">
+        <f>VLOOKUP(D15,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Nodes</v>
+      </c>
+      <c r="P15" s="14" t="str">
+        <f>VLOOKUP(D15,[1]!Colors[#All],3,FALSE)</f>
+        <v>zNode Intiliac R</v>
+      </c>
+      <c r="Q15" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R15" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S15" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T15" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U15" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D16" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="21"/>
+      <c r="J16" s="19" t="str">
+        <f>VLOOKUP(D16,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Right external iliac lymphatic chain</v>
+      </c>
+      <c r="K16" s="18">
+        <f>VLOOKUP(D16,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>229179</v>
+      </c>
+      <c r="L16" s="18" t="str">
+        <f>VLOOKUP(D16,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M16" s="17" t="str">
+        <f>VLOOKUP(D16,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N16" s="16" t="str">
+        <f>VLOOKUP(D16,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O16" s="15" t="str">
+        <f>VLOOKUP(D16,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Nodes</v>
+      </c>
+      <c r="P16" s="14" t="str">
+        <f>VLOOKUP(D16,[1]!Colors[#All],3,FALSE)</f>
+        <v>zNode extiliac L</v>
+      </c>
+      <c r="Q16" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R16" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T16" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D16,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U16" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D16,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="21"/>
+      <c r="J17" s="19" t="str">
+        <f>VLOOKUP(D17,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Left external iliac lymphatic chain</v>
+      </c>
+      <c r="K17" s="18">
+        <f>VLOOKUP(D17,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>229181</v>
+      </c>
+      <c r="L17" s="18" t="str">
+        <f>VLOOKUP(D17,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M17" s="17" t="str">
+        <f>VLOOKUP(D17,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N17" s="16" t="str">
+        <f>VLOOKUP(D17,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O17" s="15" t="str">
+        <f>VLOOKUP(D17,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Nodes</v>
+      </c>
+      <c r="P17" s="14" t="str">
+        <f>VLOOKUP(D17,[1]!Colors[#All],3,FALSE)</f>
+        <v>zNode extiliac R</v>
+      </c>
+      <c r="Q17" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R17" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S17" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T17" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D17,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U17" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D17,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="21"/>
+      <c r="J18" s="19" t="str">
+        <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Presacral space</v>
+      </c>
+      <c r="K18" s="18">
+        <f>VLOOKUP(D18,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>265331</v>
+      </c>
+      <c r="L18" s="18" t="str">
+        <f>VLOOKUP(D18,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M18" s="17" t="str">
+        <f>VLOOKUP(D18,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N18" s="16" t="str">
+        <f>VLOOKUP(D18,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="O18" s="15" t="str">
+        <f>VLOOKUP(D18,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="P18" s="14" t="str">
+        <f>VLOOKUP(D18,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PresacralSpace</v>
+      </c>
+      <c r="Q18" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R18" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S18" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T18" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D18,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U18" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D18,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="21"/>
+      <c r="J19" s="19" t="str">
+        <f>VLOOKUP(D19,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>GTV Nodal</v>
+      </c>
+      <c r="K19" s="18" t="str">
+        <f>VLOOKUP(D19,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>GTVn</v>
+      </c>
+      <c r="L19" s="18" t="str">
+        <f>VLOOKUP(D19,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M19" s="17" t="str">
+        <f>VLOOKUP(D19,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N19" s="16" t="str">
+        <f>VLOOKUP(D19,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>GTV</v>
+      </c>
+      <c r="O19" s="15" t="str">
+        <f>VLOOKUP(D19,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Nodes</v>
+      </c>
+      <c r="P19" s="14" t="str">
+        <f>VLOOKUP(D19,[1]!Colors[#All],3,FALSE)</f>
+        <v>z GTV</v>
+      </c>
+      <c r="Q19" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R19" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S19" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T19" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D19,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U19" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D19,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="21"/>
+      <c r="J20" s="19" t="str">
+        <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>CTV High Risk</v>
+      </c>
+      <c r="K20" s="18" t="str">
+        <f>VLOOKUP(D20,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>CTV_High</v>
+      </c>
+      <c r="L20" s="18" t="str">
+        <f>VLOOKUP(D20,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M20" s="17" t="str">
+        <f>VLOOKUP(D20,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N20" s="16" t="str">
+        <f>VLOOKUP(D20,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O20" s="15" t="str">
+        <f>VLOOKUP(D20,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="P20" s="14" t="str">
+        <f>VLOOKUP(D20,[1]!Colors[#All],3,FALSE)</f>
+        <v>z CTV</v>
+      </c>
+      <c r="Q20" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R20" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S20" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T20" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D20,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U20" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D20,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D21" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="21"/>
+      <c r="J21" s="19" t="str">
+        <f>VLOOKUP(D21,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>CTV Intermediate Risk</v>
+      </c>
+      <c r="K21" s="18" t="str">
+        <f>VLOOKUP(D21,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>CTV_Intermediate</v>
+      </c>
+      <c r="L21" s="18" t="str">
+        <f>VLOOKUP(D21,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M21" s="17" t="str">
+        <f>VLOOKUP(D21,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N21" s="16" t="str">
+        <f>VLOOKUP(D21,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O21" s="15" t="str">
+        <f>VLOOKUP(D21,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="P21" s="14" t="str">
+        <f>VLOOKUP(D21,[1]!Colors[#All],3,FALSE)</f>
+        <v>z CTV int</v>
+      </c>
+      <c r="Q21" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R21" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S21" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T21" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D21,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U21" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D21,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D22" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="21"/>
+      <c r="J22" s="19" t="str">
+        <f>VLOOKUP(D22,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>CTV Low Risk</v>
+      </c>
+      <c r="K22" s="18" t="str">
+        <f>VLOOKUP(D22,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>CTV_Low</v>
+      </c>
+      <c r="L22" s="18" t="str">
+        <f>VLOOKUP(D22,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M22" s="17" t="str">
+        <f>VLOOKUP(D22,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N22" s="16" t="str">
+        <f>VLOOKUP(D22,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O22" s="15" t="str">
+        <f>VLOOKUP(D22,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="P22" s="14" t="str">
+        <f>VLOOKUP(D22,[1]!Colors[#All],3,FALSE)</f>
+        <v>z CTV low</v>
+      </c>
+      <c r="Q22" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R22" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S22" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T22" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D22,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U22" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D22,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="21"/>
+      <c r="J23" s="19" t="str">
+        <f>VLOOKUP(D23,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV High Risk</v>
+      </c>
+      <c r="K23" s="18" t="str">
+        <f>VLOOKUP(D23,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_High</v>
+      </c>
+      <c r="L23" s="18" t="str">
+        <f>VLOOKUP(D23,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M23" s="17" t="str">
+        <f>VLOOKUP(D23,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N23" s="16" t="str">
+        <f>VLOOKUP(D23,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O23" s="15" t="str">
+        <f>VLOOKUP(D23,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P23" s="14" t="str">
+        <f>VLOOKUP(D23,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV</v>
+      </c>
+      <c r="Q23" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R23" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S23" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T23" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U23" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D24" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="21"/>
+      <c r="J24" s="19" t="str">
+        <f>VLOOKUP(D24,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Intermediate Risk</v>
+      </c>
+      <c r="K24" s="18" t="str">
+        <f>VLOOKUP(D24,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Intermediate</v>
+      </c>
+      <c r="L24" s="18" t="str">
+        <f>VLOOKUP(D24,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M24" s="17" t="str">
+        <f>VLOOKUP(D24,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N24" s="16" t="str">
+        <f>VLOOKUP(D24,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O24" s="15" t="str">
+        <f>VLOOKUP(D24,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P24" s="14" t="str">
+        <f>VLOOKUP(D24,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV int</v>
+      </c>
+      <c r="Q24" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R24" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S24" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T24" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U24" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D25" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="21"/>
+      <c r="J25" s="19" t="str">
+        <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Low Risk</v>
+      </c>
+      <c r="K25" s="18" t="str">
+        <f>VLOOKUP(D25,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Low</v>
+      </c>
+      <c r="L25" s="18" t="str">
+        <f>VLOOKUP(D25,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M25" s="17" t="str">
+        <f>VLOOKUP(D25,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N25" s="16" t="str">
+        <f>VLOOKUP(D25,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O25" s="15" t="str">
+        <f>VLOOKUP(D25,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P25" s="14" t="str">
+        <f>VLOOKUP(D25,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV low</v>
+      </c>
+      <c r="Q25" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R25" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S25" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T25" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U25" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D26" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="21"/>
+      <c r="J26" s="19" t="str">
+        <f>VLOOKUP(D26,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Primary</v>
+      </c>
+      <c r="K26" s="18" t="str">
+        <f>VLOOKUP(D26,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTVp</v>
+      </c>
+      <c r="L26" s="18" t="str">
+        <f>VLOOKUP(D26,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M26" s="17" t="str">
+        <f>VLOOKUP(D26,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N26" s="16" t="str">
+        <f>VLOOKUP(D26,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O26" s="15" t="str">
+        <f>VLOOKUP(D26,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P26" s="14" t="str">
+        <f>VLOOKUP(D26,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV opt</v>
+      </c>
+      <c r="Q26" s="12">
+        <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R26" s="13">
+        <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S26" s="11">
+        <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="T26" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U26" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D27" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="21"/>
+      <c r="J27" s="19" t="str">
+        <f>VLOOKUP(D27,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Intermediate Risk</v>
+      </c>
+      <c r="K27" s="18" t="str">
+        <f>VLOOKUP(D27,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Intermediate</v>
+      </c>
+      <c r="L27" s="18" t="str">
+        <f>VLOOKUP(D27,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M27" s="17" t="str">
+        <f>VLOOKUP(D27,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N27" s="16" t="str">
+        <f>VLOOKUP(D27,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O27" s="15" t="str">
+        <f>VLOOKUP(D27,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P27" s="14" t="str">
+        <f>VLOOKUP(D27,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV int opt</v>
+      </c>
+      <c r="Q27" s="12">
+        <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R27" s="13">
+        <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S27" s="11">
+        <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="T27" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U27" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D28" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="21"/>
+      <c r="J28" s="19" t="str">
+        <f>VLOOKUP(D28,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Intermediate Risk</v>
+      </c>
+      <c r="K28" s="18" t="str">
+        <f>VLOOKUP(D28,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Intermediate</v>
+      </c>
+      <c r="L28" s="18" t="str">
+        <f>VLOOKUP(D28,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M28" s="17" t="str">
+        <f>VLOOKUP(D28,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N28" s="16" t="str">
+        <f>VLOOKUP(D28,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O28" s="15" t="str">
+        <f>VLOOKUP(D28,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P28" s="14" t="str">
+        <f>VLOOKUP(D28,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV int opt</v>
+      </c>
+      <c r="Q28" s="12">
+        <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R28" s="13">
+        <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="11">
+        <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="T28" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D28,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U28" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D28,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D29" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="21"/>
+      <c r="J29" s="19" t="str">
+        <f>VLOOKUP(D29,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Intermediate Risk</v>
+      </c>
+      <c r="K29" s="18" t="str">
+        <f>VLOOKUP(D29,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Intermediate</v>
+      </c>
+      <c r="L29" s="18" t="str">
+        <f>VLOOKUP(D29,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M29" s="17" t="str">
+        <f>VLOOKUP(D29,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N29" s="16" t="str">
+        <f>VLOOKUP(D29,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O29" s="15" t="str">
+        <f>VLOOKUP(D29,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P29" s="14" t="str">
+        <f>VLOOKUP(D29,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV int opt</v>
+      </c>
+      <c r="Q29" s="12">
+        <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R29" s="13">
+        <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S29" s="11">
+        <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="T29" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D29,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U29" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D29,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D30" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="21"/>
+      <c r="J30" s="19" t="str">
+        <f>VLOOKUP(D30,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Undefined Normal Tissue</v>
+      </c>
+      <c r="K30" s="18" t="str">
+        <f>VLOOKUP(D30,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>NormalTissue</v>
+      </c>
+      <c r="L30" s="18" t="str">
+        <f>VLOOKUP(D30,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M30" s="17" t="str">
+        <f>VLOOKUP(D30,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N30" s="16" t="str">
+        <f>VLOOKUP(D30,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="O30" s="15" t="str">
+        <f>VLOOKUP(D30,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Avoidance</v>
+      </c>
+      <c r="P30" s="14" t="str">
+        <f>VLOOKUP(D30,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Normal Tissue</v>
+      </c>
+      <c r="Q30" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R30" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S30" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T30" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D30,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U30" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D30,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D31" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="37"/>
+      <c r="H31" s="21"/>
+      <c r="J31" s="19" t="str">
+        <f>VLOOKUP(D31,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Primary</v>
+      </c>
+      <c r="K31" s="18" t="str">
+        <f>VLOOKUP(D31,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTVp</v>
+      </c>
+      <c r="L31" s="18" t="str">
+        <f>VLOOKUP(D31,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M31" s="17" t="str">
+        <f>VLOOKUP(D31,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N31" s="16" t="str">
+        <f>VLOOKUP(D31,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O31" s="15" t="str">
+        <f>VLOOKUP(D31,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P31" s="14" t="str">
+        <f>VLOOKUP(D31,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV eval</v>
+      </c>
+      <c r="Q31" s="12">
+        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R31" s="13">
+        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="11">
+        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>5</v>
+      </c>
+      <c r="T31" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U31" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D32" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="21"/>
+      <c r="J32" s="19" t="str">
+        <f>VLOOKUP(D32,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Intermediate Risk</v>
+      </c>
+      <c r="K32" s="18" t="str">
+        <f>VLOOKUP(D32,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Intermediate</v>
+      </c>
+      <c r="L32" s="18" t="str">
+        <f>VLOOKUP(D32,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M32" s="17" t="str">
+        <f>VLOOKUP(D32,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N32" s="16" t="str">
+        <f>VLOOKUP(D32,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O32" s="15" t="str">
+        <f>VLOOKUP(D32,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P32" s="14" t="str">
+        <f>VLOOKUP(D32,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV int eval</v>
+      </c>
+      <c r="Q32" s="12">
+        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R32" s="13">
+        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="11">
+        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>5</v>
+      </c>
+      <c r="T32" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U32" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D33" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="37"/>
+      <c r="H33" s="21"/>
+      <c r="J33" s="19" t="str">
+        <f>VLOOKUP(D33,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="K33" s="18">
+        <f>VLOOKUP(D33,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>11296</v>
+      </c>
+      <c r="L33" s="18" t="str">
+        <f>VLOOKUP(D33,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>RADLEX</v>
+      </c>
+      <c r="M33" s="17">
+        <f>VLOOKUP(D33,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="N33" s="16" t="str">
+        <f>VLOOKUP(D33,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="O33" s="15" t="str">
+        <f>VLOOKUP(D33,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>None</v>
+      </c>
+      <c r="P33" s="14" t="str">
+        <f>VLOOKUP(D33,[1]!Colors[#All],3,FALSE)</f>
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q33" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R33" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S33" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T33" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U33" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D34" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="37"/>
+      <c r="H34" s="21"/>
+      <c r="J34" s="19" t="str">
+        <f>VLOOKUP(D34,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="K34" s="18">
+        <f>VLOOKUP(D34,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>11296</v>
+      </c>
+      <c r="L34" s="18" t="str">
+        <f>VLOOKUP(D34,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>RADLEX</v>
+      </c>
+      <c r="M34" s="17">
+        <f>VLOOKUP(D34,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="N34" s="16" t="str">
+        <f>VLOOKUP(D34,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="O34" s="15" t="str">
+        <f>VLOOKUP(D34,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>None</v>
+      </c>
+      <c r="P34" s="14" t="str">
+        <f>VLOOKUP(D34,[1]!Colors[#All],3,FALSE)</f>
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q34" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R34" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S34" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T34" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U34" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="37"/>
+      <c r="H35" s="21"/>
+      <c r="J35" s="10" t="str">
+        <f>VLOOKUP(D35,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="K35" s="9">
+        <f>VLOOKUP(D35,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>11296</v>
+      </c>
+      <c r="L35" s="9" t="str">
+        <f>VLOOKUP(D35,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>RADLEX</v>
+      </c>
+      <c r="M35" s="8">
+        <f>VLOOKUP(D35,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="N35" s="7" t="str">
+        <f>VLOOKUP(D35,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="O35" s="6" t="str">
+        <f>VLOOKUP(D35,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>None</v>
+      </c>
+      <c r="P35" s="5" t="str">
+        <f>VLOOKUP(D35,[1]!Colors[#All],3,FALSE)</f>
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q35" s="3" t="str">
+        <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R35" s="4" t="str">
+        <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S35" s="2" t="str">
+        <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T35" s="3" t="str">
+        <f>IFERROR(VLOOKUP(D35,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U35" s="2" t="str">
+        <f>IFERROR(VLOOKUP(D35,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="33" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="46" customWidth="1"/>
+    <col min="4" max="5" width="15" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" style="46" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="J1" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="52"/>
+      <c r="P1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="52"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="50"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="21"/>
+      <c r="J3" s="19" t="str">
+        <f>VLOOKUP(D3,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Body</v>
+      </c>
+      <c r="K3" s="18" t="str">
+        <f>VLOOKUP(D3,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>BODY</v>
+      </c>
+      <c r="L3" s="18" t="str">
+        <f>VLOOKUP(D3,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M3" s="17" t="str">
+        <f>VLOOKUP(D3,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N3" s="16" t="str">
+        <f>VLOOKUP(D3,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Special</v>
+      </c>
+      <c r="O3" s="15" t="str">
+        <f>VLOOKUP(D3,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>BODY</v>
+      </c>
+      <c r="P3" s="14" t="str">
+        <f>VLOOKUP(D3,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Body</v>
+      </c>
+      <c r="Q3" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R3" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S3" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D3,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T3" s="12">
+        <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v>-350</v>
+      </c>
+      <c r="U3" s="11">
+        <f>IFERROR(VLOOKUP(D3,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="19" t="str">
+        <f>VLOOKUP(D4,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Treated Volume</v>
+      </c>
+      <c r="K4" s="18" t="str">
+        <f>VLOOKUP(D4,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>Treated Volume</v>
+      </c>
+      <c r="L4" s="18" t="str">
+        <f>VLOOKUP(D4,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M4" s="17" t="str">
+        <f>VLOOKUP(D4,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N4" s="16" t="str">
+        <f>VLOOKUP(D4,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Special</v>
+      </c>
+      <c r="O4" s="15" t="str">
+        <f>VLOOKUP(D4,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P4" s="14" t="str">
+        <f>VLOOKUP(D4,[1]!Colors[#All],3,FALSE)</f>
+        <v>z DPV</v>
+      </c>
+      <c r="Q4" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R4" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S4" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D4,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T4" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U4" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D4,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="21"/>
+      <c r="J5" s="19" t="str">
+        <f>VLOOKUP(D5,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Control Region</v>
+      </c>
+      <c r="K5" s="18" t="str">
+        <f>VLOOKUP(D5,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="L5" s="18" t="str">
+        <f>VLOOKUP(D5,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M5" s="17" t="str">
+        <f>VLOOKUP(D5,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N5" s="16" t="str">
+        <f>VLOOKUP(D5,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="O5" s="15" t="str">
+        <f>VLOOKUP(D5,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="P5" s="14" t="str">
+        <f>VLOOKUP(D5,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Avoid a</v>
+      </c>
+      <c r="Q5" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R5" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S5" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D5,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T5" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U5" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D5,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="46">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="21"/>
+      <c r="J6" s="19" t="str">
+        <f>VLOOKUP(D6,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Control Region</v>
+      </c>
+      <c r="K6" s="18" t="str">
+        <f>VLOOKUP(D6,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="L6" s="18" t="str">
+        <f>VLOOKUP(D6,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M6" s="17" t="str">
+        <f>VLOOKUP(D6,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N6" s="16" t="str">
+        <f>VLOOKUP(D6,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="O6" s="15" t="str">
+        <f>VLOOKUP(D6,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="P6" s="14" t="str">
+        <f>VLOOKUP(D6,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Avoid b</v>
+      </c>
+      <c r="Q6" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R6" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S6" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D6,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T6" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U6" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D6,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="21"/>
+      <c r="J7" s="19" t="str">
+        <f>VLOOKUP(D7,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Urinary bladder</v>
+      </c>
+      <c r="K7" s="18">
+        <f>VLOOKUP(D7,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>15900</v>
+      </c>
+      <c r="L7" s="18" t="str">
+        <f>VLOOKUP(D7,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M7" s="17" t="str">
+        <f>VLOOKUP(D7,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N7" s="16" t="str">
+        <f>VLOOKUP(D7,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="O7" s="15" t="str">
+        <f>VLOOKUP(D7,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="P7" s="14" t="str">
+        <f>VLOOKUP(D7,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Bladder</v>
+      </c>
+      <c r="Q7" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R7" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D7,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T7" s="12">
+        <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v>20</v>
+      </c>
+      <c r="U7" s="11">
+        <f>IFERROR(VLOOKUP(D7,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="21"/>
+      <c r="J8" s="19" t="str">
+        <f>VLOOKUP(D8,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Bladder sub PTVs</v>
+      </c>
+      <c r="K8" s="18" t="str">
+        <f>VLOOKUP(D8,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>bladder-ptvs</v>
+      </c>
+      <c r="L8" s="18" t="str">
+        <f>VLOOKUP(D8,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M8" s="17" t="str">
+        <f>VLOOKUP(D8,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N8" s="16" t="str">
+        <f>VLOOKUP(D8,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="O8" s="15" t="str">
+        <f>VLOOKUP(D8,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Avoidance</v>
+      </c>
+      <c r="P8" s="14" t="str">
+        <f>VLOOKUP(D8,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Bladder</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R8" s="13">
+        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S8" s="11">
+        <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="T8" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U8" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D8,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="21"/>
+      <c r="J9" s="19" t="str">
+        <f>VLOOKUP(D9,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Rectum</v>
+      </c>
+      <c r="K9" s="18">
+        <f>VLOOKUP(D9,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>14544</v>
+      </c>
+      <c r="L9" s="18" t="str">
+        <f>VLOOKUP(D9,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M9" s="17" t="str">
+        <f>VLOOKUP(D9,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N9" s="16" t="str">
+        <f>VLOOKUP(D9,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="O9" s="15" t="str">
+        <f>VLOOKUP(D9,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="P9" s="14" t="str">
+        <f>VLOOKUP(D9,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Rectum</v>
+      </c>
+      <c r="Q9" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R9" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S9" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T9" s="12">
+        <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v>-20</v>
+      </c>
+      <c r="U9" s="11">
+        <f>IFERROR(VLOOKUP(D9,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="21"/>
+      <c r="J10" s="19" t="str">
+        <f>VLOOKUP(D10,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Rectum</v>
+      </c>
+      <c r="K10" s="18">
+        <f>VLOOKUP(D10,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>14544</v>
+      </c>
+      <c r="L10" s="18" t="str">
+        <f>VLOOKUP(D10,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M10" s="17" t="str">
+        <f>VLOOKUP(D10,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N10" s="16" t="str">
+        <f>VLOOKUP(D10,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="O10" s="15" t="str">
+        <f>VLOOKUP(D10,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Avoidance</v>
+      </c>
+      <c r="P10" s="14" t="str">
+        <f>VLOOKUP(D10,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Rectum</v>
+      </c>
+      <c r="Q10" s="12">
+        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R10" s="13">
+        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="11">
+        <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="T10" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U10" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="21"/>
+      <c r="J11" s="19" t="str">
+        <f>VLOOKUP(D11,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Head of right femur</v>
+      </c>
+      <c r="K11" s="18">
+        <f>VLOOKUP(D11,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>55011</v>
+      </c>
+      <c r="L11" s="18" t="str">
+        <f>VLOOKUP(D11,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M11" s="17" t="str">
+        <f>VLOOKUP(D11,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N11" s="16" t="str">
+        <f>VLOOKUP(D11,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="O11" s="15" t="str">
+        <f>VLOOKUP(D11,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="P11" s="14" t="str">
+        <f>VLOOKUP(D11,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Femoral Head R</v>
+      </c>
+      <c r="Q11" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R11" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S11" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T11" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U11" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D11,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="21"/>
+      <c r="J12" s="19" t="str">
+        <f>VLOOKUP(D12,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Head of left femur</v>
+      </c>
+      <c r="K12" s="18">
+        <f>VLOOKUP(D12,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>55012</v>
+      </c>
+      <c r="L12" s="18" t="str">
+        <f>VLOOKUP(D12,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M12" s="17" t="str">
+        <f>VLOOKUP(D12,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N12" s="16" t="str">
+        <f>VLOOKUP(D12,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="O12" s="15" t="str">
+        <f>VLOOKUP(D12,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="P12" s="14" t="str">
+        <f>VLOOKUP(D12,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Femoral Head L</v>
+      </c>
+      <c r="Q12" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R12" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S12" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T12" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U12" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="21"/>
+      <c r="J13" s="19" t="str">
+        <f>VLOOKUP(D13,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Small intestine</v>
+      </c>
+      <c r="K13" s="18">
+        <f>VLOOKUP(D13,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>7200</v>
+      </c>
+      <c r="L13" s="18" t="str">
+        <f>VLOOKUP(D13,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M13" s="17" t="str">
+        <f>VLOOKUP(D13,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N13" s="16" t="str">
+        <f>VLOOKUP(D13,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="O13" s="15" t="str">
+        <f>VLOOKUP(D13,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="P13" s="14" t="str">
+        <f>VLOOKUP(D13,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Small Bowel</v>
+      </c>
+      <c r="Q13" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R13" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S13" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T13" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U13" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D13,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="D14" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="21"/>
+      <c r="J14" s="19" t="str">
+        <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Left internal iliac lymphatic chain</v>
+      </c>
+      <c r="K14" s="18">
+        <f>VLOOKUP(D14,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>224279</v>
+      </c>
+      <c r="L14" s="18" t="str">
+        <f>VLOOKUP(D14,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M14" s="17" t="str">
+        <f>VLOOKUP(D14,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N14" s="16" t="str">
+        <f>VLOOKUP(D14,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O14" s="15" t="str">
+        <f>VLOOKUP(D14,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Nodes</v>
+      </c>
+      <c r="P14" s="14" t="str">
+        <f>VLOOKUP(D14,[1]!Colors[#All],3,FALSE)</f>
+        <v>zNode Intiliac L</v>
+      </c>
+      <c r="Q14" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R14" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T14" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U14" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D15" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="21"/>
+      <c r="J15" s="19" t="str">
+        <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Right internal iliac lymphatic chain</v>
+      </c>
+      <c r="K15" s="18">
+        <f>VLOOKUP(D15,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>224277</v>
+      </c>
+      <c r="L15" s="18" t="str">
+        <f>VLOOKUP(D15,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M15" s="17" t="str">
+        <f>VLOOKUP(D15,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N15" s="16" t="str">
+        <f>VLOOKUP(D15,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O15" s="15" t="str">
+        <f>VLOOKUP(D15,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Nodes</v>
+      </c>
+      <c r="P15" s="14" t="str">
+        <f>VLOOKUP(D15,[1]!Colors[#All],3,FALSE)</f>
+        <v>zNode Intiliac R</v>
+      </c>
+      <c r="Q15" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R15" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S15" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T15" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U15" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D15,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D16" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="21"/>
+      <c r="J16" s="19" t="str">
+        <f>VLOOKUP(D16,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Right external iliac lymphatic chain</v>
+      </c>
+      <c r="K16" s="18">
+        <f>VLOOKUP(D16,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>229179</v>
+      </c>
+      <c r="L16" s="18" t="str">
+        <f>VLOOKUP(D16,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M16" s="17" t="str">
+        <f>VLOOKUP(D16,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N16" s="16" t="str">
+        <f>VLOOKUP(D16,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O16" s="15" t="str">
+        <f>VLOOKUP(D16,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Nodes</v>
+      </c>
+      <c r="P16" s="14" t="str">
+        <f>VLOOKUP(D16,[1]!Colors[#All],3,FALSE)</f>
+        <v>zNode extiliac L</v>
+      </c>
+      <c r="Q16" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R16" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T16" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D16,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U16" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D16,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="21"/>
+      <c r="J17" s="19" t="str">
+        <f>VLOOKUP(D17,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Left external iliac lymphatic chain</v>
+      </c>
+      <c r="K17" s="18">
+        <f>VLOOKUP(D17,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>229181</v>
+      </c>
+      <c r="L17" s="18" t="str">
+        <f>VLOOKUP(D17,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M17" s="17" t="str">
+        <f>VLOOKUP(D17,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N17" s="16" t="str">
+        <f>VLOOKUP(D17,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O17" s="15" t="str">
+        <f>VLOOKUP(D17,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Nodes</v>
+      </c>
+      <c r="P17" s="14" t="str">
+        <f>VLOOKUP(D17,[1]!Colors[#All],3,FALSE)</f>
+        <v>zNode extiliac R</v>
+      </c>
+      <c r="Q17" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R17" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S17" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T17" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D17,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U17" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D17,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="21"/>
+      <c r="J18" s="19" t="str">
+        <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Presacral space</v>
+      </c>
+      <c r="K18" s="18">
+        <f>VLOOKUP(D18,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>265331</v>
+      </c>
+      <c r="L18" s="18" t="str">
+        <f>VLOOKUP(D18,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>FMA</v>
+      </c>
+      <c r="M18" s="17" t="str">
+        <f>VLOOKUP(D18,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N18" s="16" t="str">
+        <f>VLOOKUP(D18,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="O18" s="15" t="str">
+        <f>VLOOKUP(D18,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Organ</v>
+      </c>
+      <c r="P18" s="14" t="str">
+        <f>VLOOKUP(D18,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PresacralSpace</v>
+      </c>
+      <c r="Q18" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R18" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S18" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T18" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D18,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U18" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D18,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="21"/>
+      <c r="J19" s="19" t="str">
+        <f>VLOOKUP(D19,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>GTV Nodal</v>
+      </c>
+      <c r="K19" s="18" t="str">
+        <f>VLOOKUP(D19,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>GTVn</v>
+      </c>
+      <c r="L19" s="18" t="str">
+        <f>VLOOKUP(D19,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M19" s="17" t="str">
+        <f>VLOOKUP(D19,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N19" s="16" t="str">
+        <f>VLOOKUP(D19,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>GTV</v>
+      </c>
+      <c r="O19" s="15" t="str">
+        <f>VLOOKUP(D19,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Nodes</v>
+      </c>
+      <c r="P19" s="14" t="str">
+        <f>VLOOKUP(D19,[1]!Colors[#All],3,FALSE)</f>
+        <v>z GTV</v>
+      </c>
+      <c r="Q19" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R19" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S19" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T19" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D19,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U19" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D19,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="21"/>
+      <c r="J20" s="19" t="str">
+        <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>CTV High Risk</v>
+      </c>
+      <c r="K20" s="18" t="str">
+        <f>VLOOKUP(D20,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>CTV_High</v>
+      </c>
+      <c r="L20" s="18" t="str">
+        <f>VLOOKUP(D20,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M20" s="17" t="str">
+        <f>VLOOKUP(D20,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N20" s="16" t="str">
+        <f>VLOOKUP(D20,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O20" s="15" t="str">
+        <f>VLOOKUP(D20,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="P20" s="14" t="str">
+        <f>VLOOKUP(D20,[1]!Colors[#All],3,FALSE)</f>
+        <v>z CTV</v>
+      </c>
+      <c r="Q20" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R20" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S20" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T20" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D20,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U20" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D20,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D21" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="21"/>
+      <c r="J21" s="19" t="str">
+        <f>VLOOKUP(D21,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>CTV Intermediate Risk</v>
+      </c>
+      <c r="K21" s="18" t="str">
+        <f>VLOOKUP(D21,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>CTV_Intermediate</v>
+      </c>
+      <c r="L21" s="18" t="str">
+        <f>VLOOKUP(D21,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M21" s="17" t="str">
+        <f>VLOOKUP(D21,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N21" s="16" t="str">
+        <f>VLOOKUP(D21,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O21" s="15" t="str">
+        <f>VLOOKUP(D21,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="P21" s="14" t="str">
+        <f>VLOOKUP(D21,[1]!Colors[#All],3,FALSE)</f>
+        <v>z CTV int</v>
+      </c>
+      <c r="Q21" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R21" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S21" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T21" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D21,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U21" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D21,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D22" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="21"/>
+      <c r="J22" s="19" t="str">
+        <f>VLOOKUP(D22,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>CTV Low Risk</v>
+      </c>
+      <c r="K22" s="18" t="str">
+        <f>VLOOKUP(D22,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>CTV_Low</v>
+      </c>
+      <c r="L22" s="18" t="str">
+        <f>VLOOKUP(D22,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M22" s="17" t="str">
+        <f>VLOOKUP(D22,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N22" s="16" t="str">
+        <f>VLOOKUP(D22,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="O22" s="15" t="str">
+        <f>VLOOKUP(D22,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>CTV</v>
+      </c>
+      <c r="P22" s="14" t="str">
+        <f>VLOOKUP(D22,[1]!Colors[#All],3,FALSE)</f>
+        <v>z CTV low</v>
+      </c>
+      <c r="Q22" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R22" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S22" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T22" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D22,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U22" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D22,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="21"/>
+      <c r="J23" s="19" t="str">
+        <f>VLOOKUP(D23,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV High Risk</v>
+      </c>
+      <c r="K23" s="18" t="str">
+        <f>VLOOKUP(D23,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_High</v>
+      </c>
+      <c r="L23" s="18" t="str">
+        <f>VLOOKUP(D23,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M23" s="17" t="str">
+        <f>VLOOKUP(D23,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N23" s="16" t="str">
+        <f>VLOOKUP(D23,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O23" s="15" t="str">
+        <f>VLOOKUP(D23,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P23" s="14" t="str">
+        <f>VLOOKUP(D23,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV</v>
+      </c>
+      <c r="Q23" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R23" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S23" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T23" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U23" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D24" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="21"/>
+      <c r="J24" s="19" t="str">
+        <f>VLOOKUP(D24,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Intermediate Risk</v>
+      </c>
+      <c r="K24" s="18" t="str">
+        <f>VLOOKUP(D24,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Intermediate</v>
+      </c>
+      <c r="L24" s="18" t="str">
+        <f>VLOOKUP(D24,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M24" s="17" t="str">
+        <f>VLOOKUP(D24,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N24" s="16" t="str">
+        <f>VLOOKUP(D24,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O24" s="15" t="str">
+        <f>VLOOKUP(D24,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P24" s="14" t="str">
+        <f>VLOOKUP(D24,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV int</v>
+      </c>
+      <c r="Q24" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R24" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S24" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T24" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U24" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D25" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="21"/>
+      <c r="J25" s="19" t="str">
+        <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Low Risk</v>
+      </c>
+      <c r="K25" s="18" t="str">
+        <f>VLOOKUP(D25,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Low</v>
+      </c>
+      <c r="L25" s="18" t="str">
+        <f>VLOOKUP(D25,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M25" s="17" t="str">
+        <f>VLOOKUP(D25,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N25" s="16" t="str">
+        <f>VLOOKUP(D25,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O25" s="15" t="str">
+        <f>VLOOKUP(D25,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P25" s="14" t="str">
+        <f>VLOOKUP(D25,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV low</v>
+      </c>
+      <c r="Q25" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R25" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S25" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T25" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U25" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D26" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="21"/>
+      <c r="J26" s="19" t="str">
+        <f>VLOOKUP(D26,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Primary</v>
+      </c>
+      <c r="K26" s="18" t="str">
+        <f>VLOOKUP(D26,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTVp</v>
+      </c>
+      <c r="L26" s="18" t="str">
+        <f>VLOOKUP(D26,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M26" s="17" t="str">
+        <f>VLOOKUP(D26,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N26" s="16" t="str">
+        <f>VLOOKUP(D26,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O26" s="15" t="str">
+        <f>VLOOKUP(D26,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P26" s="14" t="str">
+        <f>VLOOKUP(D26,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV opt</v>
+      </c>
+      <c r="Q26" s="12">
+        <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R26" s="13">
+        <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S26" s="11">
+        <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="T26" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U26" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D27" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="21"/>
+      <c r="J27" s="19" t="str">
+        <f>VLOOKUP(D27,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Intermediate Risk</v>
+      </c>
+      <c r="K27" s="18" t="str">
+        <f>VLOOKUP(D27,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Intermediate</v>
+      </c>
+      <c r="L27" s="18" t="str">
+        <f>VLOOKUP(D27,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M27" s="17" t="str">
+        <f>VLOOKUP(D27,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N27" s="16" t="str">
+        <f>VLOOKUP(D27,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O27" s="15" t="str">
+        <f>VLOOKUP(D27,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P27" s="14" t="str">
+        <f>VLOOKUP(D27,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV int opt</v>
+      </c>
+      <c r="Q27" s="12">
+        <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R27" s="13">
+        <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S27" s="11">
+        <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="T27" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U27" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D28" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="21"/>
+      <c r="J28" s="19" t="str">
+        <f>VLOOKUP(D28,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Intermediate Risk</v>
+      </c>
+      <c r="K28" s="18" t="str">
+        <f>VLOOKUP(D28,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Intermediate</v>
+      </c>
+      <c r="L28" s="18" t="str">
+        <f>VLOOKUP(D28,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M28" s="17" t="str">
+        <f>VLOOKUP(D28,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N28" s="16" t="str">
+        <f>VLOOKUP(D28,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O28" s="15" t="str">
+        <f>VLOOKUP(D28,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P28" s="14" t="str">
+        <f>VLOOKUP(D28,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV int opt</v>
+      </c>
+      <c r="Q28" s="12">
+        <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R28" s="13">
+        <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="11">
+        <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="T28" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D28,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U28" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D28,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D29" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="21"/>
+      <c r="J29" s="19" t="str">
+        <f>VLOOKUP(D29,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Intermediate Risk</v>
+      </c>
+      <c r="K29" s="18" t="str">
+        <f>VLOOKUP(D29,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Intermediate</v>
+      </c>
+      <c r="L29" s="18" t="str">
+        <f>VLOOKUP(D29,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M29" s="17" t="str">
+        <f>VLOOKUP(D29,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N29" s="16" t="str">
+        <f>VLOOKUP(D29,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O29" s="15" t="str">
+        <f>VLOOKUP(D29,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P29" s="14" t="str">
+        <f>VLOOKUP(D29,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV int opt</v>
+      </c>
+      <c r="Q29" s="12">
+        <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R29" s="13">
+        <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S29" s="11">
+        <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="T29" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D29,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U29" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D29,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D30" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="21"/>
+      <c r="J30" s="19" t="str">
+        <f>VLOOKUP(D30,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Undefined Normal Tissue</v>
+      </c>
+      <c r="K30" s="18" t="str">
+        <f>VLOOKUP(D30,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>NormalTissue</v>
+      </c>
+      <c r="L30" s="18" t="str">
+        <f>VLOOKUP(D30,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M30" s="17" t="str">
+        <f>VLOOKUP(D30,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N30" s="16" t="str">
+        <f>VLOOKUP(D30,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Control</v>
+      </c>
+      <c r="O30" s="15" t="str">
+        <f>VLOOKUP(D30,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>Avoidance</v>
+      </c>
+      <c r="P30" s="14" t="str">
+        <f>VLOOKUP(D30,[1]!Colors[#All],3,FALSE)</f>
+        <v>z Normal Tissue</v>
+      </c>
+      <c r="Q30" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R30" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S30" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T30" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D30,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U30" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D30,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D31" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="37"/>
+      <c r="H31" s="21"/>
+      <c r="J31" s="19" t="str">
+        <f>VLOOKUP(D31,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Primary</v>
+      </c>
+      <c r="K31" s="18" t="str">
+        <f>VLOOKUP(D31,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTVp</v>
+      </c>
+      <c r="L31" s="18" t="str">
+        <f>VLOOKUP(D31,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M31" s="17" t="str">
+        <f>VLOOKUP(D31,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N31" s="16" t="str">
+        <f>VLOOKUP(D31,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O31" s="15" t="str">
+        <f>VLOOKUP(D31,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P31" s="14" t="str">
+        <f>VLOOKUP(D31,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV eval</v>
+      </c>
+      <c r="Q31" s="12">
+        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R31" s="13">
+        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="11">
+        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>5</v>
+      </c>
+      <c r="T31" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U31" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D32" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="21"/>
+      <c r="J32" s="19" t="str">
+        <f>VLOOKUP(D32,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Intermediate Risk</v>
+      </c>
+      <c r="K32" s="18" t="str">
+        <f>VLOOKUP(D32,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Intermediate</v>
+      </c>
+      <c r="L32" s="18" t="str">
+        <f>VLOOKUP(D32,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M32" s="17" t="str">
+        <f>VLOOKUP(D32,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N32" s="16" t="str">
+        <f>VLOOKUP(D32,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O32" s="15" t="str">
+        <f>VLOOKUP(D32,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P32" s="14" t="str">
+        <f>VLOOKUP(D32,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV int eval</v>
+      </c>
+      <c r="Q32" s="12">
+        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R32" s="13">
+        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="11">
+        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>5</v>
+      </c>
+      <c r="T32" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U32" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D33" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="37"/>
+      <c r="H33" s="21"/>
+      <c r="J33" s="19" t="str">
+        <f>VLOOKUP(D33,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="K33" s="18">
+        <f>VLOOKUP(D33,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>11296</v>
+      </c>
+      <c r="L33" s="18" t="str">
+        <f>VLOOKUP(D33,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>RADLEX</v>
+      </c>
+      <c r="M33" s="17">
+        <f>VLOOKUP(D33,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="N33" s="16" t="str">
+        <f>VLOOKUP(D33,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="O33" s="15" t="str">
+        <f>VLOOKUP(D33,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>None</v>
+      </c>
+      <c r="P33" s="14" t="str">
+        <f>VLOOKUP(D33,[1]!Colors[#All],3,FALSE)</f>
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q33" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R33" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S33" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T33" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U33" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D34" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="37"/>
+      <c r="H34" s="21"/>
+      <c r="J34" s="19" t="str">
+        <f>VLOOKUP(D34,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="K34" s="18">
+        <f>VLOOKUP(D34,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>11296</v>
+      </c>
+      <c r="L34" s="18" t="str">
+        <f>VLOOKUP(D34,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>RADLEX</v>
+      </c>
+      <c r="M34" s="17">
+        <f>VLOOKUP(D34,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="N34" s="16" t="str">
+        <f>VLOOKUP(D34,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="O34" s="15" t="str">
+        <f>VLOOKUP(D34,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>None</v>
+      </c>
+      <c r="P34" s="14" t="str">
+        <f>VLOOKUP(D34,[1]!Colors[#All],3,FALSE)</f>
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q34" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R34" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S34" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T34" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U34" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="37"/>
+      <c r="H35" s="21"/>
+      <c r="J35" s="10" t="str">
+        <f>VLOOKUP(D35,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="K35" s="9">
+        <f>VLOOKUP(D35,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>11296</v>
+      </c>
+      <c r="L35" s="9" t="str">
+        <f>VLOOKUP(D35,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>RADLEX</v>
+      </c>
+      <c r="M35" s="8">
+        <f>VLOOKUP(D35,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="N35" s="7" t="str">
+        <f>VLOOKUP(D35,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="O35" s="6" t="str">
+        <f>VLOOKUP(D35,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>None</v>
+      </c>
+      <c r="P35" s="5" t="str">
+        <f>VLOOKUP(D35,[1]!Colors[#All],3,FALSE)</f>
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q35" s="3" t="str">
+        <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R35" s="4" t="str">
+        <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S35" s="2" t="str">
+        <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T35" s="3" t="str">
+        <f>IFERROR(VLOOKUP(D35,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U35" s="2" t="str">
+        <f>IFERROR(VLOOKUP(D35,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="33" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9985,7 +15063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -14676,7 +19754,7 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/External Beam Templates/Structure Templates/Template Spreadsheets/Pelvis Templates.xlsx
+++ b/External Beam Templates/Structure Templates/Template Spreadsheets/Pelvis Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-3345" yWindow="900" windowWidth="27030" windowHeight="9885" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="-2475" yWindow="5490" windowWidth="27030" windowHeight="9885" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Pelvis Anatomy General" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="322">
   <si>
     <t>Sacral plexus</t>
   </si>
@@ -987,6 +987,15 @@
   </si>
   <si>
     <t>Prostate SIB 68 in 25</t>
+  </si>
+  <si>
+    <t>CTV68</t>
+  </si>
+  <si>
+    <t>PTV68</t>
+  </si>
+  <si>
+    <t>eval PTV68</t>
   </si>
 </sst>
 </file>
@@ -11270,7 +11279,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12509,7 +12518,7 @@
         <v>165</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>191</v>
@@ -12692,7 +12701,7 @@
         <v>162</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>187</v>
@@ -13180,7 +13189,7 @@
         <v>146</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>190</v>

--- a/External Beam Templates/Structure Templates/Template Spreadsheets/Pelvis Templates.xlsx
+++ b/External Beam Templates/Structure Templates/Template Spreadsheets/Pelvis Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-2475" yWindow="5490" windowWidth="27030" windowHeight="9885" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="420" yWindow="525" windowWidth="18780" windowHeight="9885" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Pelvis Anatomy General" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="318">
   <si>
     <t>Sacral plexus</t>
   </si>
@@ -866,30 +866,6 @@
     <t>TemplateType</t>
   </si>
   <si>
-    <t>IliacVessel in L</t>
-  </si>
-  <si>
-    <t>IliacVessel in R</t>
-  </si>
-  <si>
-    <t>IliacVessel ex L</t>
-  </si>
-  <si>
-    <t>IliacVessel ex R</t>
-  </si>
-  <si>
-    <t>Left internal iliac vessels as surrogate for Nodes</t>
-  </si>
-  <si>
-    <t>Right internal iliac vessels as surrogate for Nodes</t>
-  </si>
-  <si>
-    <t>Left external iliac vessels as surrogate for Nodes</t>
-  </si>
-  <si>
-    <t>Right external iliac vessels as surrogate for Nodes</t>
-  </si>
-  <si>
     <t>opt PTV46</t>
   </si>
   <si>
@@ -996,6 +972,18 @@
   </si>
   <si>
     <t>eval PTV68</t>
+  </si>
+  <si>
+    <t>Iliac Vessels L</t>
+  </si>
+  <si>
+    <t>Iliac Vessels R</t>
+  </si>
+  <si>
+    <t>Left iliac vessels as surrogate for Nodes</t>
+  </si>
+  <si>
+    <t>Right iliac vessels as surrogate for Nodes</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1442,7 +1430,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5048,7 +5035,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table533353949" displayName="Table533353949" ref="D2:H27" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table533353949" displayName="Table533353949" ref="D2:H23" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
   <tableColumns count="5">
     <tableColumn id="1" name="Structure" dataDxfId="69"/>
     <tableColumn id="2" name="ID" dataDxfId="68"/>
@@ -5082,7 +5069,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table53335394925" displayName="Table53335394925" ref="D2:H32" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table53335394925" displayName="Table53335394925" ref="D2:H28" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <tableColumns count="5">
     <tableColumn id="1" name="Structure" dataDxfId="56"/>
     <tableColumn id="2" name="ID" dataDxfId="55"/>
@@ -5105,7 +5092,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table5333539492527" displayName="Table5333539492527" ref="D2:H35" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table5333539492527" displayName="Table5333539492527" ref="D2:H31" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <tableColumns count="5">
     <tableColumn id="1" name="Structure" dataDxfId="43"/>
     <tableColumn id="2" name="ID" dataDxfId="42"/>
@@ -5128,7 +5115,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table533353949252729" displayName="Table533353949252729" ref="D2:H35" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table533353949252729" displayName="Table533353949252729" ref="D2:H31" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <tableColumns count="5">
     <tableColumn id="1" name="Structure" dataDxfId="30"/>
     <tableColumn id="2" name="ID" dataDxfId="29"/>
@@ -5584,38 +5571,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="H1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="H1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="49" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="52"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="49" t="s">
+      <c r="P1" s="51"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="50"/>
+      <c r="S1" s="49"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -6191,7 +6178,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>262</v>
@@ -6987,10 +6974,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D14" sqref="D14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7019,40 +7006,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="J1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="52"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="49" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="50"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -7259,7 +7246,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="40" t="s">
@@ -7657,7 +7644,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>272</v>
@@ -7859,32 +7846,32 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
-      <c r="D14" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>278</v>
+      <c r="D14" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>314</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="21"/>
       <c r="J14" s="19" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left internal iliac lymphatic chain</v>
-      </c>
-      <c r="K14" s="18">
+        <v>CTV Low Risk</v>
+      </c>
+      <c r="K14" s="18" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>224279</v>
+        <v>CTV_Low</v>
       </c>
       <c r="L14" s="18" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M14" s="17" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N14" s="16" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],2,FALSE)</f>
@@ -7892,11 +7879,11 @@
       </c>
       <c r="O14" s="15" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>CTV</v>
       </c>
       <c r="P14" s="14" t="str">
         <f>VLOOKUP(D14,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode Intiliac L</v>
+        <v>z CTV low</v>
       </c>
       <c r="Q14" s="12" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -7920,32 +7907,32 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>279</v>
+      <c r="D15" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>315</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="21"/>
       <c r="J15" s="19" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right internal iliac lymphatic chain</v>
-      </c>
-      <c r="K15" s="18">
+        <v>CTV Low Risk</v>
+      </c>
+      <c r="K15" s="18" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>224277</v>
+        <v>CTV_Low</v>
       </c>
       <c r="L15" s="18" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M15" s="17" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N15" s="16" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],2,FALSE)</f>
@@ -7953,11 +7940,11 @@
       </c>
       <c r="O15" s="15" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>CTV</v>
       </c>
       <c r="P15" s="14" t="str">
         <f>VLOOKUP(D15,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode Intiliac R</v>
+        <v>z CTV low</v>
       </c>
       <c r="Q15" s="12" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -7981,24 +7968,24 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>284</v>
+      <c r="D16" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>11</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="21"/>
       <c r="J16" s="19" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right external iliac lymphatic chain</v>
+        <v>Presacral space</v>
       </c>
       <c r="K16" s="18">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>229179</v>
+        <v>265331</v>
       </c>
       <c r="L16" s="18" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],5,FALSE)</f>
@@ -8010,15 +7997,15 @@
       </c>
       <c r="N16" s="16" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>Organ</v>
       </c>
       <c r="O16" s="15" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>Organ</v>
       </c>
       <c r="P16" s="14" t="str">
         <f>VLOOKUP(D16,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode extiliac L</v>
+        <v>z PresacralSpace</v>
       </c>
       <c r="Q16" s="12" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -8042,36 +8029,36 @@
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D17" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>285</v>
+      <c r="D17" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>186</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="21"/>
       <c r="J17" s="19" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left external iliac lymphatic chain</v>
-      </c>
-      <c r="K17" s="18">
+        <v>GTV Nodal</v>
+      </c>
+      <c r="K17" s="18" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>229181</v>
+        <v>GTVn</v>
       </c>
       <c r="L17" s="18" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M17" s="17" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N17" s="16" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>GTV</v>
       </c>
       <c r="O17" s="15" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],3,FALSE)</f>
@@ -8079,7 +8066,7 @@
       </c>
       <c r="P17" s="14" t="str">
         <f>VLOOKUP(D17,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode extiliac R</v>
+        <v>z GTV</v>
       </c>
       <c r="Q17" s="12" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -8103,44 +8090,44 @@
       </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D18" s="40" t="s">
-        <v>11</v>
+      <c r="D18" s="36" t="s">
+        <v>165</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="21"/>
       <c r="J18" s="19" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Presacral space</v>
-      </c>
-      <c r="K18" s="18">
+        <v>CTV High Risk</v>
+      </c>
+      <c r="K18" s="18" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>265331</v>
+        <v>CTV_High</v>
       </c>
       <c r="L18" s="18" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M18" s="17" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N18" s="16" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
+        <v>CTV</v>
       </c>
       <c r="O18" s="15" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
+        <v>CTV</v>
       </c>
       <c r="P18" s="14" t="str">
         <f>VLOOKUP(D18,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PresacralSpace</v>
+        <v>z CTV</v>
       </c>
       <c r="Q18" s="12" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -8164,24 +8151,24 @@
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D19" s="40" t="s">
-        <v>119</v>
+      <c r="D19" s="36" t="s">
+        <v>178</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>119</v>
+        <v>254</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="21"/>
       <c r="J19" s="19" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>GTV Nodal</v>
+        <v>CTV Intermediate Risk</v>
       </c>
       <c r="K19" s="18" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>GTVn</v>
+        <v>CTV_Intermediate</v>
       </c>
       <c r="L19" s="18" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],5,FALSE)</f>
@@ -8193,15 +8180,15 @@
       </c>
       <c r="N19" s="16" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>GTV</v>
+        <v>CTV</v>
       </c>
       <c r="O19" s="15" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>CTV</v>
       </c>
       <c r="P19" s="14" t="str">
         <f>VLOOKUP(D19,[1]!Colors[#All],3,FALSE)</f>
-        <v>z GTV</v>
+        <v>z CTV int</v>
       </c>
       <c r="Q19" s="12" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -8225,24 +8212,24 @@
       </c>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="36" t="s">
-        <v>165</v>
+      <c r="D20" s="40" t="s">
+        <v>162</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="21"/>
       <c r="J20" s="19" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV High Risk</v>
+        <v>PTV High Risk</v>
       </c>
       <c r="K20" s="18" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_High</v>
+        <v>PTV_High</v>
       </c>
       <c r="L20" s="18" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],5,FALSE)</f>
@@ -8254,15 +8241,15 @@
       </c>
       <c r="N20" s="16" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="O20" s="15" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="P20" s="14" t="str">
         <f>VLOOKUP(D20,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV</v>
+        <v>z PTV</v>
       </c>
       <c r="Q20" s="12" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -8286,24 +8273,24 @@
       </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D21" s="36" t="s">
-        <v>178</v>
+      <c r="D21" s="40" t="s">
+        <v>236</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="21"/>
       <c r="J21" s="19" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV Intermediate Risk</v>
+        <v>PTV Intermediate Risk</v>
       </c>
       <c r="K21" s="18" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_Intermediate</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="L21" s="18" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],5,FALSE)</f>
@@ -8315,15 +8302,15 @@
       </c>
       <c r="N21" s="16" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="O21" s="15" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="P21" s="14" t="str">
         <f>VLOOKUP(D21,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int</v>
+        <v>z PTV int</v>
       </c>
       <c r="Q21" s="12" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -8347,24 +8334,24 @@
       </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D22" s="36" t="s">
-        <v>221</v>
+      <c r="D22" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="21"/>
       <c r="J22" s="19" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV Low Risk</v>
+        <v>PTV Primary</v>
       </c>
       <c r="K22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_Low</v>
+        <v>PTVp</v>
       </c>
       <c r="L22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],5,FALSE)</f>
@@ -8376,27 +8363,27 @@
       </c>
       <c r="N22" s="16" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="O22" s="15" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="P22" s="14" t="str">
         <f>VLOOKUP(D22,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV low</v>
-      </c>
-      <c r="Q22" s="12" t="str">
+        <v>z PTV opt</v>
+      </c>
+      <c r="Q22" s="12">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R22" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R22" s="13">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S22" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="S22" s="11">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T22" s="12" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -8409,23 +8396,23 @@
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="40" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="21"/>
       <c r="J23" s="19" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV High Risk</v>
+        <v>PTV Intermediate Risk</v>
       </c>
       <c r="K23" s="18" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_High</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="L23" s="18" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],5,FALSE)</f>
@@ -8445,19 +8432,19 @@
       </c>
       <c r="P23" s="14" t="str">
         <f>VLOOKUP(D23,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV</v>
-      </c>
-      <c r="Q23" s="12" t="str">
+        <v>z PTV int opt</v>
+      </c>
+      <c r="Q23" s="12">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R23" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R23" s="13">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S23" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="S23" s="11">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T23" s="12" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -8470,23 +8457,23 @@
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="40" t="s">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="21"/>
       <c r="J24" s="19" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
+        <v>PTV Primary</v>
       </c>
       <c r="K24" s="18" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>PTVp</v>
       </c>
       <c r="L24" s="18" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],5,FALSE)</f>
@@ -8506,19 +8493,19 @@
       </c>
       <c r="P24" s="14" t="str">
         <f>VLOOKUP(D24,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int</v>
-      </c>
-      <c r="Q24" s="12" t="str">
+        <v>z PTV eval</v>
+      </c>
+      <c r="Q24" s="12">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R24" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R24" s="13">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S24" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="S24" s="11">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="T24" s="12" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -8531,23 +8518,23 @@
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="40" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="21"/>
       <c r="J25" s="19" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Low Risk</v>
+        <v>PTV Intermediate Risk</v>
       </c>
       <c r="K25" s="18" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Low</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="L25" s="18" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],5,FALSE)</f>
@@ -8567,19 +8554,19 @@
       </c>
       <c r="P25" s="14" t="str">
         <f>VLOOKUP(D25,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low</v>
-      </c>
-      <c r="Q25" s="12" t="str">
+        <v>z PTV int eval</v>
+      </c>
+      <c r="Q25" s="12">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R25" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R25" s="13">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S25" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="T25" s="12" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -8591,56 +8578,56 @@
       </c>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D26" s="40" t="s">
-        <v>143</v>
+      <c r="D26" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="21"/>
       <c r="J26" s="19" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Primary</v>
-      </c>
-      <c r="K26" s="18" t="str">
+        <v>Artifact</v>
+      </c>
+      <c r="K26" s="18">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTVp</v>
+        <v>11296</v>
       </c>
       <c r="L26" s="18" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
-      </c>
-      <c r="M26" s="17" t="str">
+        <v>RADLEX</v>
+      </c>
+      <c r="M26" s="17">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.8</v>
       </c>
       <c r="N26" s="16" t="str">
         <f>VLOOKUP(D26,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Artifact</v>
       </c>
       <c r="O26" s="15" t="str">
         <f>VLOOKUP(D26,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>None</v>
       </c>
       <c r="P26" s="14" t="str">
         <f>VLOOKUP(D26,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV opt</v>
-      </c>
-      <c r="Q26" s="12">
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q26" s="12" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R26" s="13">
+        <v/>
+      </c>
+      <c r="R26" s="13" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="11">
+        <v/>
+      </c>
+      <c r="S26" s="11" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="T26" s="12" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -8653,55 +8640,55 @@
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="40" t="s">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>296</v>
+        <v>105</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="21"/>
       <c r="J27" s="19" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
-      </c>
-      <c r="K27" s="18" t="str">
+        <v>Artifact</v>
+      </c>
+      <c r="K27" s="18">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>11296</v>
       </c>
       <c r="L27" s="18" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
-      </c>
-      <c r="M27" s="17" t="str">
+        <v>RADLEX</v>
+      </c>
+      <c r="M27" s="17">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.8</v>
       </c>
       <c r="N27" s="16" t="str">
         <f>VLOOKUP(D27,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Artifact</v>
       </c>
       <c r="O27" s="15" t="str">
         <f>VLOOKUP(D27,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>None</v>
       </c>
       <c r="P27" s="14" t="str">
         <f>VLOOKUP(D27,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int opt</v>
-      </c>
-      <c r="Q27" s="12">
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q27" s="12" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R27" s="13">
+        <v/>
+      </c>
+      <c r="R27" s="13" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="S27" s="11">
+        <v/>
+      </c>
+      <c r="S27" s="11" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="T27" s="12" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -8712,308 +8699,64 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D28" s="40" t="s">
-        <v>146</v>
+    <row r="28" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>292</v>
+        <v>106</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="21"/>
-      <c r="J28" s="19" t="str">
+      <c r="J28" s="10" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Primary</v>
-      </c>
-      <c r="K28" s="18" t="str">
+        <v>Artifact</v>
+      </c>
+      <c r="K28" s="9">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTVp</v>
-      </c>
-      <c r="L28" s="18" t="str">
+        <v>11296</v>
+      </c>
+      <c r="L28" s="9" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
-      </c>
-      <c r="M28" s="17" t="str">
+        <v>RADLEX</v>
+      </c>
+      <c r="M28" s="8">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
-      </c>
-      <c r="N28" s="16" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="N28" s="7" t="str">
         <f>VLOOKUP(D28,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
-      </c>
-      <c r="O28" s="15" t="str">
+        <v>Artifact</v>
+      </c>
+      <c r="O28" s="6" t="str">
         <f>VLOOKUP(D28,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
-      </c>
-      <c r="P28" s="14" t="str">
+        <v>None</v>
+      </c>
+      <c r="P28" s="5" t="str">
         <f>VLOOKUP(D28,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV eval</v>
-      </c>
-      <c r="Q28" s="12">
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q28" s="3" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R28" s="13">
+        <v/>
+      </c>
+      <c r="R28" s="4" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="11">
+        <v/>
+      </c>
+      <c r="S28" s="2" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>5</v>
-      </c>
-      <c r="T28" s="12" t="str">
+        <v/>
+      </c>
+      <c r="T28" s="3" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U28" s="11" t="str">
+      <c r="U28" s="2" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D29" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="21"/>
-      <c r="J29" s="19" t="str">
-        <f>VLOOKUP(D29,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
-      </c>
-      <c r="K29" s="18" t="str">
-        <f>VLOOKUP(D29,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
-      </c>
-      <c r="L29" s="18" t="str">
-        <f>VLOOKUP(D29,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
-      </c>
-      <c r="M29" s="17" t="str">
-        <f>VLOOKUP(D29,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
-      </c>
-      <c r="N29" s="16" t="str">
-        <f>VLOOKUP(D29,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
-      </c>
-      <c r="O29" s="15" t="str">
-        <f>VLOOKUP(D29,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
-      </c>
-      <c r="P29" s="14" t="str">
-        <f>VLOOKUP(D29,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int eval</v>
-      </c>
-      <c r="Q29" s="12">
-        <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R29" s="13">
-        <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="11">
-        <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>5</v>
-      </c>
-      <c r="T29" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D29,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U29" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D29,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D30" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="21"/>
-      <c r="J30" s="19" t="str">
-        <f>VLOOKUP(D30,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K30" s="18">
-        <f>VLOOKUP(D30,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
-      </c>
-      <c r="L30" s="18" t="str">
-        <f>VLOOKUP(D30,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M30" s="17">
-        <f>VLOOKUP(D30,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
-      </c>
-      <c r="N30" s="16" t="str">
-        <f>VLOOKUP(D30,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="O30" s="15" t="str">
-        <f>VLOOKUP(D30,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
-      </c>
-      <c r="P30" s="14" t="str">
-        <f>VLOOKUP(D30,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q30" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R30" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S30" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T30" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D30,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U30" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D30,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="21"/>
-      <c r="J31" s="19" t="str">
-        <f>VLOOKUP(D31,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K31" s="18">
-        <f>VLOOKUP(D31,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
-      </c>
-      <c r="L31" s="18" t="str">
-        <f>VLOOKUP(D31,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M31" s="17">
-        <f>VLOOKUP(D31,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
-      </c>
-      <c r="N31" s="16" t="str">
-        <f>VLOOKUP(D31,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="O31" s="15" t="str">
-        <f>VLOOKUP(D31,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
-      </c>
-      <c r="P31" s="14" t="str">
-        <f>VLOOKUP(D31,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q31" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R31" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S31" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T31" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U31" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="21"/>
-      <c r="J32" s="10" t="str">
-        <f>VLOOKUP(D32,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K32" s="9">
-        <f>VLOOKUP(D32,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
-      </c>
-      <c r="L32" s="9" t="str">
-        <f>VLOOKUP(D32,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M32" s="8">
-        <f>VLOOKUP(D32,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
-      </c>
-      <c r="N32" s="7" t="str">
-        <f>VLOOKUP(D32,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="O32" s="6" t="str">
-        <f>VLOOKUP(D32,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
-      </c>
-      <c r="P32" s="5" t="str">
-        <f>VLOOKUP(D32,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q32" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R32" s="4" t="str">
-        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S32" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T32" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U32" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -9040,10 +8783,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D14" sqref="D14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9072,40 +8815,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="51"/>
+      <c r="A1" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="J1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="52"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="49" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="50"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -9172,7 +8915,7 @@
         <v>275</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="40" t="s">
@@ -9312,7 +9055,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="40" t="s">
@@ -9710,10 +9453,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>32</v>
@@ -9912,32 +9655,32 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
-      <c r="D14" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>278</v>
+      <c r="D14" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>314</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="21"/>
       <c r="J14" s="19" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left internal iliac lymphatic chain</v>
-      </c>
-      <c r="K14" s="18">
+        <v>CTV Low Risk</v>
+      </c>
+      <c r="K14" s="18" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>224279</v>
+        <v>CTV_Low</v>
       </c>
       <c r="L14" s="18" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M14" s="17" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N14" s="16" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],2,FALSE)</f>
@@ -9945,11 +9688,11 @@
       </c>
       <c r="O14" s="15" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>CTV</v>
       </c>
       <c r="P14" s="14" t="str">
         <f>VLOOKUP(D14,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode Intiliac L</v>
+        <v>z CTV low</v>
       </c>
       <c r="Q14" s="12" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -9973,32 +9716,32 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>279</v>
+      <c r="D15" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>315</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="21"/>
       <c r="J15" s="19" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right internal iliac lymphatic chain</v>
-      </c>
-      <c r="K15" s="18">
+        <v>CTV Low Risk</v>
+      </c>
+      <c r="K15" s="18" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>224277</v>
+        <v>CTV_Low</v>
       </c>
       <c r="L15" s="18" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M15" s="17" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N15" s="16" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],2,FALSE)</f>
@@ -10006,11 +9749,11 @@
       </c>
       <c r="O15" s="15" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>CTV</v>
       </c>
       <c r="P15" s="14" t="str">
         <f>VLOOKUP(D15,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode Intiliac R</v>
+        <v>z CTV low</v>
       </c>
       <c r="Q15" s="12" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -10034,24 +9777,24 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>284</v>
+      <c r="D16" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>11</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="21"/>
       <c r="J16" s="19" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right external iliac lymphatic chain</v>
+        <v>Presacral space</v>
       </c>
       <c r="K16" s="18">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>229179</v>
+        <v>265331</v>
       </c>
       <c r="L16" s="18" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],5,FALSE)</f>
@@ -10063,15 +9806,15 @@
       </c>
       <c r="N16" s="16" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>Organ</v>
       </c>
       <c r="O16" s="15" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>Organ</v>
       </c>
       <c r="P16" s="14" t="str">
         <f>VLOOKUP(D16,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode extiliac L</v>
+        <v>z PresacralSpace</v>
       </c>
       <c r="Q16" s="12" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -10095,36 +9838,36 @@
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D17" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>285</v>
+      <c r="D17" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>186</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="21"/>
       <c r="J17" s="19" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left external iliac lymphatic chain</v>
-      </c>
-      <c r="K17" s="18">
+        <v>GTV Nodal</v>
+      </c>
+      <c r="K17" s="18" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>229181</v>
+        <v>GTVn</v>
       </c>
       <c r="L17" s="18" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M17" s="17" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N17" s="16" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>GTV</v>
       </c>
       <c r="O17" s="15" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],3,FALSE)</f>
@@ -10132,7 +9875,7 @@
       </c>
       <c r="P17" s="14" t="str">
         <f>VLOOKUP(D17,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode extiliac R</v>
+        <v>z GTV</v>
       </c>
       <c r="Q17" s="12" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -10156,44 +9899,44 @@
       </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D18" s="40" t="s">
-        <v>11</v>
+      <c r="D18" s="36" t="s">
+        <v>165</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="21"/>
       <c r="J18" s="19" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Presacral space</v>
-      </c>
-      <c r="K18" s="18">
+        <v>CTV High Risk</v>
+      </c>
+      <c r="K18" s="18" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>265331</v>
+        <v>CTV_High</v>
       </c>
       <c r="L18" s="18" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M18" s="17" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N18" s="16" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
+        <v>CTV</v>
       </c>
       <c r="O18" s="15" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
+        <v>CTV</v>
       </c>
       <c r="P18" s="14" t="str">
         <f>VLOOKUP(D18,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PresacralSpace</v>
+        <v>z CTV</v>
       </c>
       <c r="Q18" s="12" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -10217,24 +9960,24 @@
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D19" s="40" t="s">
-        <v>119</v>
+      <c r="D19" s="36" t="s">
+        <v>178</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="21"/>
       <c r="J19" s="19" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>GTV Nodal</v>
+        <v>CTV Intermediate Risk</v>
       </c>
       <c r="K19" s="18" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>GTVn</v>
+        <v>CTV_Intermediate</v>
       </c>
       <c r="L19" s="18" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],5,FALSE)</f>
@@ -10246,15 +9989,15 @@
       </c>
       <c r="N19" s="16" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>GTV</v>
+        <v>CTV</v>
       </c>
       <c r="O19" s="15" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>CTV</v>
       </c>
       <c r="P19" s="14" t="str">
         <f>VLOOKUP(D19,[1]!Colors[#All],3,FALSE)</f>
-        <v>z GTV</v>
+        <v>z CTV int</v>
       </c>
       <c r="Q19" s="12" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -10278,24 +10021,24 @@
       </c>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="36" t="s">
-        <v>165</v>
+      <c r="D20" s="40" t="s">
+        <v>162</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="21"/>
       <c r="J20" s="19" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV High Risk</v>
+        <v>PTV High Risk</v>
       </c>
       <c r="K20" s="18" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_High</v>
+        <v>PTV_High</v>
       </c>
       <c r="L20" s="18" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],5,FALSE)</f>
@@ -10307,15 +10050,15 @@
       </c>
       <c r="N20" s="16" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="O20" s="15" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="P20" s="14" t="str">
         <f>VLOOKUP(D20,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV</v>
+        <v>z PTV</v>
       </c>
       <c r="Q20" s="12" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -10339,24 +10082,24 @@
       </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D21" s="36" t="s">
-        <v>178</v>
+      <c r="D21" s="40" t="s">
+        <v>236</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="21"/>
       <c r="J21" s="19" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV Intermediate Risk</v>
+        <v>PTV Intermediate Risk</v>
       </c>
       <c r="K21" s="18" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_Intermediate</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="L21" s="18" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],5,FALSE)</f>
@@ -10368,15 +10111,15 @@
       </c>
       <c r="N21" s="16" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="O21" s="15" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="P21" s="14" t="str">
         <f>VLOOKUP(D21,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int</v>
+        <v>z PTV int</v>
       </c>
       <c r="Q21" s="12" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -10400,24 +10143,24 @@
       </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D22" s="36" t="s">
-        <v>221</v>
+      <c r="D22" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="21"/>
       <c r="J22" s="19" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV Low Risk</v>
+        <v>PTV Primary</v>
       </c>
       <c r="K22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_Low</v>
+        <v>PTVp</v>
       </c>
       <c r="L22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],5,FALSE)</f>
@@ -10429,27 +10172,27 @@
       </c>
       <c r="N22" s="16" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="O22" s="15" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="P22" s="14" t="str">
         <f>VLOOKUP(D22,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV low</v>
-      </c>
-      <c r="Q22" s="12" t="str">
+        <v>z PTV opt</v>
+      </c>
+      <c r="Q22" s="12">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R22" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R22" s="13">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S22" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="S22" s="11">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T22" s="12" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -10462,23 +10205,23 @@
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="40" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="21"/>
       <c r="J23" s="19" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV High Risk</v>
+        <v>PTV Intermediate Risk</v>
       </c>
       <c r="K23" s="18" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_High</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="L23" s="18" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],5,FALSE)</f>
@@ -10498,19 +10241,19 @@
       </c>
       <c r="P23" s="14" t="str">
         <f>VLOOKUP(D23,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV</v>
-      </c>
-      <c r="Q23" s="12" t="str">
+        <v>z PTV int opt</v>
+      </c>
+      <c r="Q23" s="12">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R23" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R23" s="13">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S23" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="S23" s="11">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T23" s="12" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -10523,13 +10266,13 @@
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="40" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="21"/>
@@ -10559,19 +10302,19 @@
       </c>
       <c r="P24" s="14" t="str">
         <f>VLOOKUP(D24,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int</v>
-      </c>
-      <c r="Q24" s="12" t="str">
+        <v>z PTV int opt</v>
+      </c>
+      <c r="Q24" s="12">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R24" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R24" s="13">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S24" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="S24" s="11">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T24" s="12" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -10584,23 +10327,23 @@
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="40" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="21"/>
       <c r="J25" s="19" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Low Risk</v>
+        <v>PTV Intermediate Risk</v>
       </c>
       <c r="K25" s="18" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Low</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="L25" s="18" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],5,FALSE)</f>
@@ -10620,19 +10363,19 @@
       </c>
       <c r="P25" s="14" t="str">
         <f>VLOOKUP(D25,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low</v>
-      </c>
-      <c r="Q25" s="12" t="str">
+        <v>z PTV int opt</v>
+      </c>
+      <c r="Q25" s="12">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R25" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R25" s="13">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S25" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="S25" s="11">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T25" s="12" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -10645,23 +10388,23 @@
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>308</v>
+        <v>204</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>204</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>188</v>
+        <v>306</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="21"/>
       <c r="J26" s="19" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Primary</v>
+        <v>Undefined Normal Tissue</v>
       </c>
       <c r="K26" s="18" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTVp</v>
+        <v>NormalTissue</v>
       </c>
       <c r="L26" s="18" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],5,FALSE)</f>
@@ -10673,27 +10416,27 @@
       </c>
       <c r="N26" s="16" t="str">
         <f>VLOOKUP(D26,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Control</v>
       </c>
       <c r="O26" s="15" t="str">
         <f>VLOOKUP(D26,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>Avoidance</v>
       </c>
       <c r="P26" s="14" t="str">
         <f>VLOOKUP(D26,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV opt</v>
-      </c>
-      <c r="Q26" s="12">
+        <v>z Normal Tissue</v>
+      </c>
+      <c r="Q26" s="12" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R26" s="13">
+        <v/>
+      </c>
+      <c r="R26" s="13" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="11">
+        <v/>
+      </c>
+      <c r="S26" s="11" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="T26" s="12" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -10706,23 +10449,23 @@
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="40" t="s">
-        <v>287</v>
+        <v>146</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="21"/>
       <c r="J27" s="19" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
+        <v>PTV Primary</v>
       </c>
       <c r="K27" s="18" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>PTVp</v>
       </c>
       <c r="L27" s="18" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],5,FALSE)</f>
@@ -10742,7 +10485,7 @@
       </c>
       <c r="P27" s="14" t="str">
         <f>VLOOKUP(D27,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int opt</v>
+        <v>z PTV eval</v>
       </c>
       <c r="Q27" s="12">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -10750,11 +10493,11 @@
       </c>
       <c r="R27" s="13">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="11">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T27" s="12" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -10767,13 +10510,13 @@
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="21"/>
@@ -10803,7 +10546,7 @@
       </c>
       <c r="P28" s="14" t="str">
         <f>VLOOKUP(D28,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int opt</v>
+        <v>z PTV int eval</v>
       </c>
       <c r="Q28" s="12">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -10811,11 +10554,11 @@
       </c>
       <c r="R28" s="13">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="11">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T28" s="12" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -10827,56 +10570,56 @@
       </c>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D29" s="40" t="s">
-        <v>287</v>
+      <c r="D29" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>311</v>
+        <v>109</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>296</v>
+        <v>105</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="21"/>
       <c r="J29" s="19" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
-      </c>
-      <c r="K29" s="18" t="str">
+        <v>Artifact</v>
+      </c>
+      <c r="K29" s="18">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>11296</v>
       </c>
       <c r="L29" s="18" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
-      </c>
-      <c r="M29" s="17" t="str">
+        <v>RADLEX</v>
+      </c>
+      <c r="M29" s="17">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.8</v>
       </c>
       <c r="N29" s="16" t="str">
         <f>VLOOKUP(D29,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Artifact</v>
       </c>
       <c r="O29" s="15" t="str">
         <f>VLOOKUP(D29,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>None</v>
       </c>
       <c r="P29" s="14" t="str">
         <f>VLOOKUP(D29,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int opt</v>
-      </c>
-      <c r="Q29" s="12">
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q29" s="12" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R29" s="13">
+        <v/>
+      </c>
+      <c r="R29" s="13" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="S29" s="11">
+        <v/>
+      </c>
+      <c r="S29" s="11" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="T29" s="12" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -10889,43 +10632,43 @@
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>204</v>
+        <v>107</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>314</v>
+        <v>105</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="21"/>
       <c r="J30" s="19" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Undefined Normal Tissue</v>
-      </c>
-      <c r="K30" s="18" t="str">
+        <v>Artifact</v>
+      </c>
+      <c r="K30" s="18">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>NormalTissue</v>
+        <v>11296</v>
       </c>
       <c r="L30" s="18" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
-      </c>
-      <c r="M30" s="17" t="str">
+        <v>RADLEX</v>
+      </c>
+      <c r="M30" s="17">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.8</v>
       </c>
       <c r="N30" s="16" t="str">
         <f>VLOOKUP(D30,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Control</v>
+        <v>Artifact</v>
       </c>
       <c r="O30" s="15" t="str">
         <f>VLOOKUP(D30,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Avoidance</v>
+        <v>None</v>
       </c>
       <c r="P30" s="14" t="str">
         <f>VLOOKUP(D30,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Normal Tissue</v>
+        <v>z RO Helper</v>
       </c>
       <c r="Q30" s="12" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -10948,308 +10691,64 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="40" t="s">
-        <v>146</v>
+    <row r="31" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="21"/>
-      <c r="J31" s="19" t="str">
+      <c r="J31" s="10" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Primary</v>
-      </c>
-      <c r="K31" s="18" t="str">
+        <v>Artifact</v>
+      </c>
+      <c r="K31" s="9">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTVp</v>
-      </c>
-      <c r="L31" s="18" t="str">
+        <v>11296</v>
+      </c>
+      <c r="L31" s="9" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
-      </c>
-      <c r="M31" s="17" t="str">
+        <v>RADLEX</v>
+      </c>
+      <c r="M31" s="8">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
-      </c>
-      <c r="N31" s="16" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="N31" s="7" t="str">
         <f>VLOOKUP(D31,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
-      </c>
-      <c r="O31" s="15" t="str">
+        <v>Artifact</v>
+      </c>
+      <c r="O31" s="6" t="str">
         <f>VLOOKUP(D31,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
-      </c>
-      <c r="P31" s="14" t="str">
+        <v>None</v>
+      </c>
+      <c r="P31" s="5" t="str">
         <f>VLOOKUP(D31,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV eval</v>
-      </c>
-      <c r="Q31" s="12">
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q31" s="3" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R31" s="13">
+        <v/>
+      </c>
+      <c r="R31" s="4" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="11">
+        <v/>
+      </c>
+      <c r="S31" s="2" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>5</v>
-      </c>
-      <c r="T31" s="12" t="str">
+        <v/>
+      </c>
+      <c r="T31" s="3" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U31" s="11" t="str">
+      <c r="U31" s="2" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="21"/>
-      <c r="J32" s="19" t="str">
-        <f>VLOOKUP(D32,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
-      </c>
-      <c r="K32" s="18" t="str">
-        <f>VLOOKUP(D32,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
-      </c>
-      <c r="L32" s="18" t="str">
-        <f>VLOOKUP(D32,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
-      </c>
-      <c r="M32" s="17" t="str">
-        <f>VLOOKUP(D32,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
-      </c>
-      <c r="N32" s="16" t="str">
-        <f>VLOOKUP(D32,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
-      </c>
-      <c r="O32" s="15" t="str">
-        <f>VLOOKUP(D32,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
-      </c>
-      <c r="P32" s="14" t="str">
-        <f>VLOOKUP(D32,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int eval</v>
-      </c>
-      <c r="Q32" s="12">
-        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R32" s="13">
-        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="11">
-        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>5</v>
-      </c>
-      <c r="T32" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U32" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D33" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="21"/>
-      <c r="J33" s="19" t="str">
-        <f>VLOOKUP(D33,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K33" s="18">
-        <f>VLOOKUP(D33,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
-      </c>
-      <c r="L33" s="18" t="str">
-        <f>VLOOKUP(D33,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M33" s="17">
-        <f>VLOOKUP(D33,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
-      </c>
-      <c r="N33" s="16" t="str">
-        <f>VLOOKUP(D33,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="O33" s="15" t="str">
-        <f>VLOOKUP(D33,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
-      </c>
-      <c r="P33" s="14" t="str">
-        <f>VLOOKUP(D33,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q33" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R33" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S33" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T33" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U33" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D34" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="21"/>
-      <c r="J34" s="19" t="str">
-        <f>VLOOKUP(D34,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K34" s="18">
-        <f>VLOOKUP(D34,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
-      </c>
-      <c r="L34" s="18" t="str">
-        <f>VLOOKUP(D34,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M34" s="17">
-        <f>VLOOKUP(D34,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
-      </c>
-      <c r="N34" s="16" t="str">
-        <f>VLOOKUP(D34,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="O34" s="15" t="str">
-        <f>VLOOKUP(D34,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
-      </c>
-      <c r="P34" s="14" t="str">
-        <f>VLOOKUP(D34,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q34" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R34" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S34" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T34" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U34" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="37"/>
-      <c r="H35" s="21"/>
-      <c r="J35" s="10" t="str">
-        <f>VLOOKUP(D35,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K35" s="9">
-        <f>VLOOKUP(D35,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
-      </c>
-      <c r="L35" s="9" t="str">
-        <f>VLOOKUP(D35,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M35" s="8">
-        <f>VLOOKUP(D35,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
-      </c>
-      <c r="N35" s="7" t="str">
-        <f>VLOOKUP(D35,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="O35" s="6" t="str">
-        <f>VLOOKUP(D35,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
-      </c>
-      <c r="P35" s="5" t="str">
-        <f>VLOOKUP(D35,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q35" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R35" s="4" t="str">
-        <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S35" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T35" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D35,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U35" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D35,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -11276,10 +10775,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11308,40 +10807,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="51"/>
+      <c r="A1" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="J1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="52"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="49" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="50"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -11408,7 +10907,7 @@
         <v>275</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="40" t="s">
@@ -11548,7 +11047,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="40" t="s">
@@ -11946,10 +11445,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>32</v>
@@ -12148,32 +11647,32 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
-      <c r="D14" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>278</v>
+      <c r="D14" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>314</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="21"/>
       <c r="J14" s="19" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left internal iliac lymphatic chain</v>
-      </c>
-      <c r="K14" s="18">
+        <v>CTV Low Risk</v>
+      </c>
+      <c r="K14" s="18" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>224279</v>
+        <v>CTV_Low</v>
       </c>
       <c r="L14" s="18" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M14" s="17" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N14" s="16" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],2,FALSE)</f>
@@ -12181,11 +11680,11 @@
       </c>
       <c r="O14" s="15" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>CTV</v>
       </c>
       <c r="P14" s="14" t="str">
         <f>VLOOKUP(D14,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode Intiliac L</v>
+        <v>z CTV low</v>
       </c>
       <c r="Q14" s="12" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -12209,32 +11708,32 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>279</v>
+      <c r="D15" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>315</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="21"/>
       <c r="J15" s="19" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right internal iliac lymphatic chain</v>
-      </c>
-      <c r="K15" s="18">
+        <v>CTV Low Risk</v>
+      </c>
+      <c r="K15" s="18" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>224277</v>
+        <v>CTV_Low</v>
       </c>
       <c r="L15" s="18" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M15" s="17" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N15" s="16" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],2,FALSE)</f>
@@ -12242,11 +11741,11 @@
       </c>
       <c r="O15" s="15" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>CTV</v>
       </c>
       <c r="P15" s="14" t="str">
         <f>VLOOKUP(D15,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode Intiliac R</v>
+        <v>z CTV low</v>
       </c>
       <c r="Q15" s="12" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -12270,24 +11769,24 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>284</v>
+      <c r="D16" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>11</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="21"/>
       <c r="J16" s="19" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right external iliac lymphatic chain</v>
+        <v>Presacral space</v>
       </c>
       <c r="K16" s="18">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>229179</v>
+        <v>265331</v>
       </c>
       <c r="L16" s="18" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12299,15 +11798,15 @@
       </c>
       <c r="N16" s="16" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>Organ</v>
       </c>
       <c r="O16" s="15" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>Organ</v>
       </c>
       <c r="P16" s="14" t="str">
         <f>VLOOKUP(D16,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode extiliac L</v>
+        <v>z PresacralSpace</v>
       </c>
       <c r="Q16" s="12" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -12331,36 +11830,36 @@
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D17" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>285</v>
+      <c r="D17" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>186</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="21"/>
       <c r="J17" s="19" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left external iliac lymphatic chain</v>
-      </c>
-      <c r="K17" s="18">
+        <v>GTV Nodal</v>
+      </c>
+      <c r="K17" s="18" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>229181</v>
+        <v>GTVn</v>
       </c>
       <c r="L17" s="18" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M17" s="17" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N17" s="16" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>GTV</v>
       </c>
       <c r="O17" s="15" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],3,FALSE)</f>
@@ -12368,7 +11867,7 @@
       </c>
       <c r="P17" s="14" t="str">
         <f>VLOOKUP(D17,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode extiliac R</v>
+        <v>z GTV</v>
       </c>
       <c r="Q17" s="12" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -12392,44 +11891,44 @@
       </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D18" s="40" t="s">
-        <v>11</v>
+      <c r="D18" s="36" t="s">
+        <v>165</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="21"/>
       <c r="J18" s="19" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Presacral space</v>
-      </c>
-      <c r="K18" s="18">
+        <v>CTV High Risk</v>
+      </c>
+      <c r="K18" s="18" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>265331</v>
+        <v>CTV_High</v>
       </c>
       <c r="L18" s="18" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M18" s="17" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N18" s="16" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
+        <v>CTV</v>
       </c>
       <c r="O18" s="15" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
+        <v>CTV</v>
       </c>
       <c r="P18" s="14" t="str">
         <f>VLOOKUP(D18,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PresacralSpace</v>
+        <v>z CTV</v>
       </c>
       <c r="Q18" s="12" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -12453,24 +11952,24 @@
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D19" s="40" t="s">
-        <v>119</v>
+      <c r="D19" s="36" t="s">
+        <v>178</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="21"/>
       <c r="J19" s="19" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>GTV Nodal</v>
+        <v>CTV Intermediate Risk</v>
       </c>
       <c r="K19" s="18" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>GTVn</v>
+        <v>CTV_Intermediate</v>
       </c>
       <c r="L19" s="18" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12482,15 +11981,15 @@
       </c>
       <c r="N19" s="16" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>GTV</v>
+        <v>CTV</v>
       </c>
       <c r="O19" s="15" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>CTV</v>
       </c>
       <c r="P19" s="14" t="str">
         <f>VLOOKUP(D19,[1]!Colors[#All],3,FALSE)</f>
-        <v>z GTV</v>
+        <v>z CTV int</v>
       </c>
       <c r="Q19" s="12" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -12514,24 +12013,24 @@
       </c>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="36" t="s">
-        <v>165</v>
+      <c r="D20" s="40" t="s">
+        <v>162</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="21"/>
       <c r="J20" s="19" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV High Risk</v>
+        <v>PTV High Risk</v>
       </c>
       <c r="K20" s="18" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_High</v>
+        <v>PTV_High</v>
       </c>
       <c r="L20" s="18" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12543,15 +12042,15 @@
       </c>
       <c r="N20" s="16" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="O20" s="15" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="P20" s="14" t="str">
         <f>VLOOKUP(D20,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV</v>
+        <v>z PTV</v>
       </c>
       <c r="Q20" s="12" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -12575,24 +12074,24 @@
       </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D21" s="36" t="s">
-        <v>178</v>
+      <c r="D21" s="40" t="s">
+        <v>236</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="21"/>
       <c r="J21" s="19" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV Intermediate Risk</v>
+        <v>PTV Intermediate Risk</v>
       </c>
       <c r="K21" s="18" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_Intermediate</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="L21" s="18" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12604,15 +12103,15 @@
       </c>
       <c r="N21" s="16" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="O21" s="15" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="P21" s="14" t="str">
         <f>VLOOKUP(D21,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int</v>
+        <v>z PTV int</v>
       </c>
       <c r="Q21" s="12" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -12636,24 +12135,24 @@
       </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D22" s="36" t="s">
-        <v>221</v>
+      <c r="D22" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="21"/>
       <c r="J22" s="19" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV Low Risk</v>
+        <v>PTV Primary</v>
       </c>
       <c r="K22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_Low</v>
+        <v>PTVp</v>
       </c>
       <c r="L22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12665,27 +12164,27 @@
       </c>
       <c r="N22" s="16" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="O22" s="15" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="P22" s="14" t="str">
         <f>VLOOKUP(D22,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV low</v>
-      </c>
-      <c r="Q22" s="12" t="str">
+        <v>z PTV opt</v>
+      </c>
+      <c r="Q22" s="12">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R22" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R22" s="13">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S22" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="S22" s="11">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T22" s="12" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -12698,23 +12197,23 @@
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="40" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="21"/>
       <c r="J23" s="19" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV High Risk</v>
+        <v>PTV Intermediate Risk</v>
       </c>
       <c r="K23" s="18" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_High</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="L23" s="18" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12734,19 +12233,19 @@
       </c>
       <c r="P23" s="14" t="str">
         <f>VLOOKUP(D23,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV</v>
-      </c>
-      <c r="Q23" s="12" t="str">
+        <v>z PTV int opt</v>
+      </c>
+      <c r="Q23" s="12">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R23" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R23" s="13">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S23" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="S23" s="11">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T23" s="12" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -12759,13 +12258,13 @@
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="40" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="21"/>
@@ -12795,19 +12294,19 @@
       </c>
       <c r="P24" s="14" t="str">
         <f>VLOOKUP(D24,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int</v>
-      </c>
-      <c r="Q24" s="12" t="str">
+        <v>z PTV int opt</v>
+      </c>
+      <c r="Q24" s="12">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R24" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R24" s="13">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S24" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="S24" s="11">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T24" s="12" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -12820,23 +12319,23 @@
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="40" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="21"/>
       <c r="J25" s="19" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Low Risk</v>
+        <v>PTV Intermediate Risk</v>
       </c>
       <c r="K25" s="18" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Low</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="L25" s="18" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12856,19 +12355,19 @@
       </c>
       <c r="P25" s="14" t="str">
         <f>VLOOKUP(D25,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low</v>
-      </c>
-      <c r="Q25" s="12" t="str">
+        <v>z PTV int opt</v>
+      </c>
+      <c r="Q25" s="12">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R25" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R25" s="13">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S25" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="S25" s="11">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T25" s="12" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -12881,23 +12380,23 @@
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>308</v>
+        <v>204</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>204</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>188</v>
+        <v>306</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="21"/>
       <c r="J26" s="19" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Primary</v>
+        <v>Undefined Normal Tissue</v>
       </c>
       <c r="K26" s="18" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTVp</v>
+        <v>NormalTissue</v>
       </c>
       <c r="L26" s="18" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12909,27 +12408,27 @@
       </c>
       <c r="N26" s="16" t="str">
         <f>VLOOKUP(D26,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Control</v>
       </c>
       <c r="O26" s="15" t="str">
         <f>VLOOKUP(D26,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>Avoidance</v>
       </c>
       <c r="P26" s="14" t="str">
         <f>VLOOKUP(D26,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV opt</v>
-      </c>
-      <c r="Q26" s="12">
+        <v>z Normal Tissue</v>
+      </c>
+      <c r="Q26" s="12" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R26" s="13">
+        <v/>
+      </c>
+      <c r="R26" s="13" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="11">
+        <v/>
+      </c>
+      <c r="S26" s="11" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="T26" s="12" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -12942,23 +12441,23 @@
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="40" t="s">
-        <v>287</v>
+        <v>146</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="21"/>
       <c r="J27" s="19" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
+        <v>PTV Primary</v>
       </c>
       <c r="K27" s="18" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>PTVp</v>
       </c>
       <c r="L27" s="18" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12978,7 +12477,7 @@
       </c>
       <c r="P27" s="14" t="str">
         <f>VLOOKUP(D27,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int opt</v>
+        <v>z PTV eval</v>
       </c>
       <c r="Q27" s="12">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -12986,11 +12485,11 @@
       </c>
       <c r="R27" s="13">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="11">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T27" s="12" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -13003,13 +12502,13 @@
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="21"/>
@@ -13039,7 +12538,7 @@
       </c>
       <c r="P28" s="14" t="str">
         <f>VLOOKUP(D28,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int opt</v>
+        <v>z PTV int eval</v>
       </c>
       <c r="Q28" s="12">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -13047,11 +12546,11 @@
       </c>
       <c r="R28" s="13">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="11">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T28" s="12" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -13063,56 +12562,56 @@
       </c>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D29" s="40" t="s">
-        <v>287</v>
+      <c r="D29" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>311</v>
+        <v>109</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>296</v>
+        <v>105</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="21"/>
       <c r="J29" s="19" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
-      </c>
-      <c r="K29" s="18" t="str">
+        <v>Artifact</v>
+      </c>
+      <c r="K29" s="18">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>11296</v>
       </c>
       <c r="L29" s="18" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
-      </c>
-      <c r="M29" s="17" t="str">
+        <v>RADLEX</v>
+      </c>
+      <c r="M29" s="17">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.8</v>
       </c>
       <c r="N29" s="16" t="str">
         <f>VLOOKUP(D29,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Artifact</v>
       </c>
       <c r="O29" s="15" t="str">
         <f>VLOOKUP(D29,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>None</v>
       </c>
       <c r="P29" s="14" t="str">
         <f>VLOOKUP(D29,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int opt</v>
-      </c>
-      <c r="Q29" s="12">
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q29" s="12" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R29" s="13">
+        <v/>
+      </c>
+      <c r="R29" s="13" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="S29" s="11">
+        <v/>
+      </c>
+      <c r="S29" s="11" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="T29" s="12" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -13125,43 +12624,43 @@
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>204</v>
+        <v>107</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>314</v>
+        <v>105</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="21"/>
       <c r="J30" s="19" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Undefined Normal Tissue</v>
-      </c>
-      <c r="K30" s="18" t="str">
+        <v>Artifact</v>
+      </c>
+      <c r="K30" s="18">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>NormalTissue</v>
+        <v>11296</v>
       </c>
       <c r="L30" s="18" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
-      </c>
-      <c r="M30" s="17" t="str">
+        <v>RADLEX</v>
+      </c>
+      <c r="M30" s="17">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.8</v>
       </c>
       <c r="N30" s="16" t="str">
         <f>VLOOKUP(D30,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Control</v>
+        <v>Artifact</v>
       </c>
       <c r="O30" s="15" t="str">
         <f>VLOOKUP(D30,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Avoidance</v>
+        <v>None</v>
       </c>
       <c r="P30" s="14" t="str">
         <f>VLOOKUP(D30,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Normal Tissue</v>
+        <v>z RO Helper</v>
       </c>
       <c r="Q30" s="12" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -13184,308 +12683,64 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="40" t="s">
-        <v>146</v>
+    <row r="31" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>321</v>
+        <v>106</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="21"/>
-      <c r="J31" s="19" t="str">
+      <c r="J31" s="10" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Primary</v>
-      </c>
-      <c r="K31" s="18" t="str">
+        <v>Artifact</v>
+      </c>
+      <c r="K31" s="9">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTVp</v>
-      </c>
-      <c r="L31" s="18" t="str">
+        <v>11296</v>
+      </c>
+      <c r="L31" s="9" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
-      </c>
-      <c r="M31" s="17" t="str">
+        <v>RADLEX</v>
+      </c>
+      <c r="M31" s="8">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
-      </c>
-      <c r="N31" s="16" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="N31" s="7" t="str">
         <f>VLOOKUP(D31,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
-      </c>
-      <c r="O31" s="15" t="str">
+        <v>Artifact</v>
+      </c>
+      <c r="O31" s="6" t="str">
         <f>VLOOKUP(D31,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
-      </c>
-      <c r="P31" s="14" t="str">
+        <v>None</v>
+      </c>
+      <c r="P31" s="5" t="str">
         <f>VLOOKUP(D31,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV eval</v>
-      </c>
-      <c r="Q31" s="12">
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q31" s="3" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R31" s="13">
+        <v/>
+      </c>
+      <c r="R31" s="4" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="11">
+        <v/>
+      </c>
+      <c r="S31" s="2" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>5</v>
-      </c>
-      <c r="T31" s="12" t="str">
+        <v/>
+      </c>
+      <c r="T31" s="3" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U31" s="11" t="str">
+      <c r="U31" s="2" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="21"/>
-      <c r="J32" s="19" t="str">
-        <f>VLOOKUP(D32,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
-      </c>
-      <c r="K32" s="18" t="str">
-        <f>VLOOKUP(D32,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
-      </c>
-      <c r="L32" s="18" t="str">
-        <f>VLOOKUP(D32,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
-      </c>
-      <c r="M32" s="17" t="str">
-        <f>VLOOKUP(D32,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
-      </c>
-      <c r="N32" s="16" t="str">
-        <f>VLOOKUP(D32,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
-      </c>
-      <c r="O32" s="15" t="str">
-        <f>VLOOKUP(D32,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
-      </c>
-      <c r="P32" s="14" t="str">
-        <f>VLOOKUP(D32,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int eval</v>
-      </c>
-      <c r="Q32" s="12">
-        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R32" s="13">
-        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="11">
-        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>5</v>
-      </c>
-      <c r="T32" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U32" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D33" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="21"/>
-      <c r="J33" s="19" t="str">
-        <f>VLOOKUP(D33,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K33" s="18">
-        <f>VLOOKUP(D33,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
-      </c>
-      <c r="L33" s="18" t="str">
-        <f>VLOOKUP(D33,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M33" s="17">
-        <f>VLOOKUP(D33,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
-      </c>
-      <c r="N33" s="16" t="str">
-        <f>VLOOKUP(D33,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="O33" s="15" t="str">
-        <f>VLOOKUP(D33,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
-      </c>
-      <c r="P33" s="14" t="str">
-        <f>VLOOKUP(D33,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q33" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R33" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S33" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T33" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U33" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D34" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="21"/>
-      <c r="J34" s="19" t="str">
-        <f>VLOOKUP(D34,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K34" s="18">
-        <f>VLOOKUP(D34,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
-      </c>
-      <c r="L34" s="18" t="str">
-        <f>VLOOKUP(D34,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M34" s="17">
-        <f>VLOOKUP(D34,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
-      </c>
-      <c r="N34" s="16" t="str">
-        <f>VLOOKUP(D34,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="O34" s="15" t="str">
-        <f>VLOOKUP(D34,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
-      </c>
-      <c r="P34" s="14" t="str">
-        <f>VLOOKUP(D34,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q34" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R34" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S34" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T34" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U34" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="37"/>
-      <c r="H35" s="21"/>
-      <c r="J35" s="10" t="str">
-        <f>VLOOKUP(D35,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K35" s="9">
-        <f>VLOOKUP(D35,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
-      </c>
-      <c r="L35" s="9" t="str">
-        <f>VLOOKUP(D35,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M35" s="8">
-        <f>VLOOKUP(D35,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
-      </c>
-      <c r="N35" s="7" t="str">
-        <f>VLOOKUP(D35,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="O35" s="6" t="str">
-        <f>VLOOKUP(D35,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
-      </c>
-      <c r="P35" s="5" t="str">
-        <f>VLOOKUP(D35,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q35" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R35" s="4" t="str">
-        <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S35" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T35" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D35,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U35" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D35,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -13544,40 +12799,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="J1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="52"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="49" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="50"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -14121,7 +13376,7 @@
         <v>259</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>212</v>
@@ -14182,7 +13437,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>273</v>
@@ -15079,8 +14334,8 @@
   </sheetPr>
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15109,40 +14364,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="J1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="52"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="49" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="50"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -15750,7 +15005,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>274</v>
@@ -16026,11 +15281,11 @@
       <c r="H15" s="21"/>
       <c r="J15" s="19" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Kidney</v>
-      </c>
-      <c r="K15" s="18">
+        <v>Set of kidneys</v>
+      </c>
+      <c r="K15" s="18" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7203</v>
+        <v>264815</v>
       </c>
       <c r="L15" s="18" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],5,FALSE)</f>
@@ -17529,38 +16784,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="H1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="H1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="49" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="52"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="49" t="s">
+      <c r="P1" s="51"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="50"/>
+      <c r="S1" s="49"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -18022,7 +17277,7 @@
     </row>
     <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>263</v>
@@ -18193,38 +17448,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="H1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="H1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="49" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="52"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="49" t="s">
+      <c r="P1" s="51"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="50"/>
+      <c r="S1" s="49"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -18686,7 +17941,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>264</v>
@@ -18859,38 +18114,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="H1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="H1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="49" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="52"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="49" t="s">
+      <c r="P1" s="51"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="50"/>
+      <c r="S1" s="49"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -19466,7 +18721,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>265</v>
@@ -19793,40 +19048,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="J1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="52"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="49" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="50"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -20431,7 +19686,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>267</v>
@@ -20701,7 +19956,7 @@
         <v>103</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="21"/>
@@ -20762,7 +20017,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="21"/>
@@ -21175,40 +20430,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="J1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="52"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="49" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="50"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -21813,7 +21068,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>268</v>
@@ -22677,40 +21932,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="J1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="52"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="49" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="50"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -23315,7 +22570,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>269</v>
@@ -24484,40 +23739,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="J1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="52"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="49" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="50"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -25122,7 +24377,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>270</v>
@@ -25834,10 +25089,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25866,40 +25121,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="J1" s="49" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="52"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="49" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="50"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -26504,7 +25759,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>271</v>
@@ -26951,23 +26206,23 @@
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="36" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>185</v>
+        <v>314</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="21"/>
       <c r="J18" s="19" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV Intermediate Risk</v>
+        <v>CTV Low Risk</v>
       </c>
       <c r="K18" s="18" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_Intermediate</v>
+        <v>CTV_Low</v>
       </c>
       <c r="L18" s="18" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],5,FALSE)</f>
@@ -26983,11 +26238,11 @@
       </c>
       <c r="O18" s="15" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>CTV</v>
       </c>
       <c r="P18" s="14" t="str">
         <f>VLOOKUP(D18,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int</v>
+        <v>z CTV low</v>
       </c>
       <c r="Q18" s="12" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -27011,24 +26266,24 @@
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D19" s="40" t="s">
-        <v>183</v>
+      <c r="D19" s="36" t="s">
+        <v>221</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>182</v>
+        <v>317</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="21"/>
       <c r="J19" s="19" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
+        <v>CTV Low Risk</v>
       </c>
       <c r="K19" s="18" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>CTV_Low</v>
       </c>
       <c r="L19" s="18" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],5,FALSE)</f>
@@ -27040,15 +26295,15 @@
       </c>
       <c r="N19" s="16" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="O19" s="15" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="P19" s="14" t="str">
         <f>VLOOKUP(D19,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int</v>
+        <v>z CTV low</v>
       </c>
       <c r="Q19" s="12" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -27072,24 +26327,24 @@
       </c>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>278</v>
+      <c r="D20" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>11</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="21"/>
       <c r="J20" s="19" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left internal iliac lymphatic chain</v>
+        <v>Presacral space</v>
       </c>
       <c r="K20" s="18">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>224279</v>
+        <v>265331</v>
       </c>
       <c r="L20" s="18" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],5,FALSE)</f>
@@ -27101,15 +26356,15 @@
       </c>
       <c r="N20" s="16" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>Organ</v>
       </c>
       <c r="O20" s="15" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>Organ</v>
       </c>
       <c r="P20" s="14" t="str">
         <f>VLOOKUP(D20,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode Intiliac L</v>
+        <v>z PresacralSpace</v>
       </c>
       <c r="Q20" s="12" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -27133,44 +26388,44 @@
       </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D21" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>279</v>
+      <c r="D21" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>109</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>283</v>
+        <v>105</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="21"/>
       <c r="J21" s="19" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right internal iliac lymphatic chain</v>
+        <v>Artifact</v>
       </c>
       <c r="K21" s="18">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>224277</v>
+        <v>11296</v>
       </c>
       <c r="L21" s="18" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="M21" s="17" t="str">
+        <v>RADLEX</v>
+      </c>
+      <c r="M21" s="17">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N21" s="16" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>Artifact</v>
       </c>
       <c r="O21" s="15" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>None</v>
       </c>
       <c r="P21" s="14" t="str">
         <f>VLOOKUP(D21,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode Intiliac R</v>
+        <v>z RO Helper</v>
       </c>
       <c r="Q21" s="12" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -27194,44 +26449,44 @@
       </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D22" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>284</v>
+      <c r="D22" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>105</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="21"/>
       <c r="J22" s="19" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right external iliac lymphatic chain</v>
+        <v>Artifact</v>
       </c>
       <c r="K22" s="18">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>229179</v>
+        <v>11296</v>
       </c>
       <c r="L22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="M22" s="17" t="str">
+        <v>RADLEX</v>
+      </c>
+      <c r="M22" s="17">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N22" s="16" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>Artifact</v>
       </c>
       <c r="O22" s="15" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>None</v>
       </c>
       <c r="P22" s="14" t="str">
         <f>VLOOKUP(D22,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode extiliac L</v>
+        <v>z RO Helper</v>
       </c>
       <c r="Q22" s="12" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -27254,308 +26509,64 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>285</v>
+    <row r="23" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>105</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="21"/>
-      <c r="J23" s="19" t="str">
+      <c r="J23" s="10" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left external iliac lymphatic chain</v>
-      </c>
-      <c r="K23" s="18">
+        <v>Artifact</v>
+      </c>
+      <c r="K23" s="9">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>229181</v>
-      </c>
-      <c r="L23" s="18" t="str">
+        <v>11296</v>
+      </c>
+      <c r="L23" s="9" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="M23" s="17" t="str">
+        <v>RADLEX</v>
+      </c>
+      <c r="M23" s="8">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="N23" s="16" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="N23" s="7" t="str">
         <f>VLOOKUP(D23,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
-      </c>
-      <c r="O23" s="15" t="str">
+        <v>Artifact</v>
+      </c>
+      <c r="O23" s="6" t="str">
         <f>VLOOKUP(D23,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
-      </c>
-      <c r="P23" s="14" t="str">
+        <v>None</v>
+      </c>
+      <c r="P23" s="5" t="str">
         <f>VLOOKUP(D23,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode extiliac R</v>
-      </c>
-      <c r="Q23" s="12" t="str">
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q23" s="3" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R23" s="13" t="str">
+      <c r="R23" s="4" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S23" s="11" t="str">
+      <c r="S23" s="2" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T23" s="12" t="str">
+      <c r="T23" s="3" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U23" s="11" t="str">
+      <c r="U23" s="2" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D24" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="21"/>
-      <c r="J24" s="19" t="str">
-        <f>VLOOKUP(D24,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Presacral space</v>
-      </c>
-      <c r="K24" s="18">
-        <f>VLOOKUP(D24,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>265331</v>
-      </c>
-      <c r="L24" s="18" t="str">
-        <f>VLOOKUP(D24,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
-      </c>
-      <c r="M24" s="17" t="str">
-        <f>VLOOKUP(D24,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
-      </c>
-      <c r="N24" s="16" t="str">
-        <f>VLOOKUP(D24,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="O24" s="15" t="str">
-        <f>VLOOKUP(D24,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
-      </c>
-      <c r="P24" s="14" t="str">
-        <f>VLOOKUP(D24,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PresacralSpace</v>
-      </c>
-      <c r="Q24" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R24" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S24" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T24" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U24" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D25" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="21"/>
-      <c r="J25" s="19" t="str">
-        <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K25" s="18">
-        <f>VLOOKUP(D25,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
-      </c>
-      <c r="L25" s="18" t="str">
-        <f>VLOOKUP(D25,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M25" s="17">
-        <f>VLOOKUP(D25,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
-      </c>
-      <c r="N25" s="16" t="str">
-        <f>VLOOKUP(D25,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="O25" s="15" t="str">
-        <f>VLOOKUP(D25,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
-      </c>
-      <c r="P25" s="14" t="str">
-        <f>VLOOKUP(D25,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q25" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R25" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S25" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T25" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U25" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D26" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="21"/>
-      <c r="J26" s="19" t="str">
-        <f>VLOOKUP(D26,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K26" s="18">
-        <f>VLOOKUP(D26,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
-      </c>
-      <c r="L26" s="18" t="str">
-        <f>VLOOKUP(D26,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M26" s="17">
-        <f>VLOOKUP(D26,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
-      </c>
-      <c r="N26" s="16" t="str">
-        <f>VLOOKUP(D26,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="O26" s="15" t="str">
-        <f>VLOOKUP(D26,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
-      </c>
-      <c r="P26" s="14" t="str">
-        <f>VLOOKUP(D26,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q26" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R26" s="13" t="str">
-        <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S26" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T26" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U26" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="21"/>
-      <c r="J27" s="10" t="str">
-        <f>VLOOKUP(D27,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K27" s="9">
-        <f>VLOOKUP(D27,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
-      </c>
-      <c r="L27" s="9" t="str">
-        <f>VLOOKUP(D27,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M27" s="8">
-        <f>VLOOKUP(D27,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
-      </c>
-      <c r="N27" s="7" t="str">
-        <f>VLOOKUP(D27,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="O27" s="6" t="str">
-        <f>VLOOKUP(D27,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
-      </c>
-      <c r="P27" s="5" t="str">
-        <f>VLOOKUP(D27,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q27" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R27" s="4" t="str">
-        <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S27" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T27" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U27" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>

--- a/External Beam Templates/Structure Templates/Template Spreadsheets/Pelvis Templates.xlsx
+++ b/External Beam Templates/Structure Templates/Template Spreadsheets/Pelvis Templates.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="525" windowWidth="18780" windowHeight="9885" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="420" yWindow="525" windowWidth="18780" windowHeight="9885" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Pelvis Anatomy General" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="328">
   <si>
     <t>Sacral plexus</t>
   </si>
@@ -984,6 +984,36 @@
   </si>
   <si>
     <t>Right iliac vessels as surrogate for Nodes</t>
+  </si>
+  <si>
+    <t>CTV56</t>
+  </si>
+  <si>
+    <t>CTV low Risk</t>
+  </si>
+  <si>
+    <t>PTV56</t>
+  </si>
+  <si>
+    <t>PTV Intermediate Risk</t>
+  </si>
+  <si>
+    <t>PTV low eval</t>
+  </si>
+  <si>
+    <t>eval PTV56</t>
+  </si>
+  <si>
+    <t>PTV low Risk for DVH</t>
+  </si>
+  <si>
+    <t>PTV low Risk for optimizer</t>
+  </si>
+  <si>
+    <t>opt PTV56</t>
+  </si>
+  <si>
+    <t>PTV low Risk</t>
   </si>
 </sst>
 </file>
@@ -5115,7 +5145,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table533353949252729" displayName="Table533353949252729" ref="D2:H31" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table533353949252729" displayName="Table533353949252729" ref="D2:H34" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <tableColumns count="5">
     <tableColumn id="1" name="Structure" dataDxfId="30"/>
     <tableColumn id="2" name="ID" dataDxfId="29"/>
@@ -10775,10 +10805,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:U31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11956,7 +11986,7 @@
         <v>178</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>290</v>
@@ -12013,24 +12043,24 @@
       </c>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="40" t="s">
-        <v>162</v>
+      <c r="D20" s="36" t="s">
+        <v>221</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>187</v>
+        <v>319</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="21"/>
       <c r="J20" s="19" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV High Risk</v>
+        <v>CTV Low Risk</v>
       </c>
       <c r="K20" s="18" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_High</v>
+        <v>CTV_Low</v>
       </c>
       <c r="L20" s="18" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12042,15 +12072,15 @@
       </c>
       <c r="N20" s="16" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="O20" s="15" t="str">
         <f>VLOOKUP(D20,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="P20" s="14" t="str">
         <f>VLOOKUP(D20,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV</v>
+        <v>z CTV low</v>
       </c>
       <c r="Q20" s="12" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -12075,23 +12105,23 @@
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="40" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="21"/>
       <c r="J21" s="19" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
+        <v>PTV High Risk</v>
       </c>
       <c r="K21" s="18" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>PTV_High</v>
       </c>
       <c r="L21" s="18" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12111,7 +12141,7 @@
       </c>
       <c r="P21" s="14" t="str">
         <f>VLOOKUP(D21,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int</v>
+        <v>z PTV</v>
       </c>
       <c r="Q21" s="12" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -12136,23 +12166,23 @@
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="40" t="s">
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>188</v>
+        <v>321</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="21"/>
       <c r="J22" s="19" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Primary</v>
+        <v>PTV Intermediate Risk</v>
       </c>
       <c r="K22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTVp</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="L22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12172,19 +12202,19 @@
       </c>
       <c r="P22" s="14" t="str">
         <f>VLOOKUP(D22,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV opt</v>
-      </c>
-      <c r="Q22" s="12">
+        <v>z PTV int</v>
+      </c>
+      <c r="Q22" s="12" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R22" s="13">
+        <v/>
+      </c>
+      <c r="R22" s="13" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="S22" s="11">
+        <v/>
+      </c>
+      <c r="S22" s="11" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="T22" s="12" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -12197,23 +12227,23 @@
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="40" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="21"/>
       <c r="J23" s="19" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
+        <v>PTV Low Risk</v>
       </c>
       <c r="K23" s="18" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>PTV_Low</v>
       </c>
       <c r="L23" s="18" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12233,19 +12263,19 @@
       </c>
       <c r="P23" s="14" t="str">
         <f>VLOOKUP(D23,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int opt</v>
-      </c>
-      <c r="Q23" s="12">
+        <v>z PTV low</v>
+      </c>
+      <c r="Q23" s="12" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R23" s="13">
+        <v/>
+      </c>
+      <c r="R23" s="13" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="S23" s="11">
+        <v/>
+      </c>
+      <c r="S23" s="11" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="T23" s="12" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -12261,7 +12291,7 @@
         <v>279</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>288</v>
@@ -12319,23 +12349,23 @@
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="40" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="21"/>
       <c r="J25" s="19" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
+        <v>PTV Low Risk</v>
       </c>
       <c r="K25" s="18" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>PTV_Low</v>
       </c>
       <c r="L25" s="18" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12355,7 +12385,7 @@
       </c>
       <c r="P25" s="14" t="str">
         <f>VLOOKUP(D25,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int opt</v>
+        <v>z PTV low opt</v>
       </c>
       <c r="Q25" s="12">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -12380,23 +12410,23 @@
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>204</v>
+        <v>287</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>301</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="21"/>
       <c r="J26" s="19" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Undefined Normal Tissue</v>
+        <v>PTV Low Risk</v>
       </c>
       <c r="K26" s="18" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>NormalTissue</v>
+        <v>PTV_Low</v>
       </c>
       <c r="L26" s="18" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12408,27 +12438,27 @@
       </c>
       <c r="N26" s="16" t="str">
         <f>VLOOKUP(D26,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Control</v>
+        <v>PTV</v>
       </c>
       <c r="O26" s="15" t="str">
         <f>VLOOKUP(D26,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Avoidance</v>
+        <v>PTV</v>
       </c>
       <c r="P26" s="14" t="str">
         <f>VLOOKUP(D26,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Normal Tissue</v>
-      </c>
-      <c r="Q26" s="12" t="str">
+        <v>z PTV low opt</v>
+      </c>
+      <c r="Q26" s="12">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R26" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R26" s="13">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S26" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="S26" s="11">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T26" s="12" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -12441,23 +12471,23 @@
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="40" t="s">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>190</v>
+        <v>325</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="21"/>
       <c r="J27" s="19" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Primary</v>
+        <v>PTV Low Risk</v>
       </c>
       <c r="K27" s="18" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTVp</v>
+        <v>PTV_Low</v>
       </c>
       <c r="L27" s="18" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12477,7 +12507,7 @@
       </c>
       <c r="P27" s="14" t="str">
         <f>VLOOKUP(D27,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV eval</v>
+        <v>z PTV low opt</v>
       </c>
       <c r="Q27" s="12">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -12485,11 +12515,11 @@
       </c>
       <c r="R27" s="13">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="11">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T27" s="12" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -12502,23 +12532,23 @@
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>305</v>
+        <v>204</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>204</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="21"/>
       <c r="J28" s="19" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
+        <v>Undefined Normal Tissue</v>
       </c>
       <c r="K28" s="18" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>NormalTissue</v>
       </c>
       <c r="L28" s="18" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],5,FALSE)</f>
@@ -12530,27 +12560,27 @@
       </c>
       <c r="N28" s="16" t="str">
         <f>VLOOKUP(D28,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Control</v>
       </c>
       <c r="O28" s="15" t="str">
         <f>VLOOKUP(D28,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>Avoidance</v>
       </c>
       <c r="P28" s="14" t="str">
         <f>VLOOKUP(D28,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int eval</v>
-      </c>
-      <c r="Q28" s="12">
+        <v>z Normal Tissue</v>
+      </c>
+      <c r="Q28" s="12" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R28" s="13">
+        <v/>
+      </c>
+      <c r="R28" s="13" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="11">
+        <v/>
+      </c>
+      <c r="S28" s="11" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="T28" s="12" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -12562,56 +12592,56 @@
       </c>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D29" s="36" t="s">
-        <v>107</v>
+      <c r="D29" s="40" t="s">
+        <v>146</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>109</v>
+        <v>313</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="21"/>
       <c r="J29" s="19" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K29" s="18">
+        <v>PTV Primary</v>
+      </c>
+      <c r="K29" s="18" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
+        <v>PTVp</v>
       </c>
       <c r="L29" s="18" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M29" s="17">
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M29" s="17" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
+        <v>1.0</v>
       </c>
       <c r="N29" s="16" t="str">
         <f>VLOOKUP(D29,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
+        <v>PTV</v>
       </c>
       <c r="O29" s="15" t="str">
         <f>VLOOKUP(D29,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
+        <v>PTV</v>
       </c>
       <c r="P29" s="14" t="str">
         <f>VLOOKUP(D29,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q29" s="12" t="str">
+        <v>z PTV eval</v>
+      </c>
+      <c r="Q29" s="12">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R29" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R29" s="13">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S29" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="T29" s="12" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -12624,55 +12654,55 @@
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="40" t="s">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>108</v>
+        <v>323</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>105</v>
+        <v>289</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="21"/>
       <c r="J30" s="19" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K30" s="18">
+        <v>PTV Intermediate Risk</v>
+      </c>
+      <c r="K30" s="18" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="L30" s="18" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M30" s="17">
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M30" s="17" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
+        <v>1.0</v>
       </c>
       <c r="N30" s="16" t="str">
         <f>VLOOKUP(D30,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
+        <v>PTV</v>
       </c>
       <c r="O30" s="15" t="str">
         <f>VLOOKUP(D30,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
+        <v>PTV</v>
       </c>
       <c r="P30" s="14" t="str">
         <f>VLOOKUP(D30,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="Q30" s="12" t="str">
+        <v>z PTV int eval</v>
+      </c>
+      <c r="Q30" s="12">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R30" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R30" s="13">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S30" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="S30" s="11">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="T30" s="12" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -12683,64 +12713,247 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="36" t="s">
-        <v>107</v>
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D31" s="40" t="s">
+        <v>322</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>105</v>
+        <v>324</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="21"/>
-      <c r="J31" s="10" t="str">
+      <c r="J31" s="19" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Low Risk</v>
+      </c>
+      <c r="K31" s="18" t="str">
+        <f>VLOOKUP(D31,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Low</v>
+      </c>
+      <c r="L31" s="18" t="str">
+        <f>VLOOKUP(D31,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M31" s="17" t="str">
+        <f>VLOOKUP(D31,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="N31" s="16" t="str">
+        <f>VLOOKUP(D31,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O31" s="15" t="str">
+        <f>VLOOKUP(D31,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="P31" s="14" t="str">
+        <f>VLOOKUP(D31,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV low eval</v>
+      </c>
+      <c r="Q31" s="12">
+        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="R31" s="13">
+        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="11">
+        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>5</v>
+      </c>
+      <c r="T31" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U31" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D32" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="21"/>
+      <c r="J32" s="19" t="str">
+        <f>VLOOKUP(D32,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="K31" s="9">
-        <f>VLOOKUP(D31,[1]!Dictionary[#All],4,FALSE)</f>
+      <c r="K32" s="18">
+        <f>VLOOKUP(D32,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="L31" s="9" t="str">
-        <f>VLOOKUP(D31,[1]!Dictionary[#All],5,FALSE)</f>
+      <c r="L32" s="18" t="str">
+        <f>VLOOKUP(D32,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="M31" s="8">
-        <f>VLOOKUP(D31,[1]!Dictionary[#All],6,FALSE)</f>
+      <c r="M32" s="17">
+        <f>VLOOKUP(D32,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="N31" s="7" t="str">
-        <f>VLOOKUP(D31,[1]!VolumeType[#All],2,FALSE)</f>
+      <c r="N32" s="16" t="str">
+        <f>VLOOKUP(D32,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="O31" s="6" t="str">
-        <f>VLOOKUP(D31,[1]!VolumeType[#All],3,FALSE)</f>
+      <c r="O32" s="15" t="str">
+        <f>VLOOKUP(D32,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="P31" s="5" t="str">
-        <f>VLOOKUP(D31,[1]!Colors[#All],3,FALSE)</f>
+      <c r="P32" s="14" t="str">
+        <f>VLOOKUP(D32,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="Q31" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R31" s="4" t="str">
-        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S31" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T31" s="3" t="str">
-        <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U31" s="2" t="str">
-        <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],3,FALSE),"")</f>
+      <c r="Q32" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R32" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S32" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T32" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U32" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D33" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="37"/>
+      <c r="H33" s="21"/>
+      <c r="J33" s="19" t="str">
+        <f>VLOOKUP(D33,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="K33" s="18">
+        <f>VLOOKUP(D33,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>11296</v>
+      </c>
+      <c r="L33" s="18" t="str">
+        <f>VLOOKUP(D33,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>RADLEX</v>
+      </c>
+      <c r="M33" s="17">
+        <f>VLOOKUP(D33,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="N33" s="16" t="str">
+        <f>VLOOKUP(D33,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="O33" s="15" t="str">
+        <f>VLOOKUP(D33,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>None</v>
+      </c>
+      <c r="P33" s="14" t="str">
+        <f>VLOOKUP(D33,[1]!Colors[#All],3,FALSE)</f>
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q33" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R33" s="13" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S33" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T33" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U33" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="37"/>
+      <c r="H34" s="21"/>
+      <c r="J34" s="10" t="str">
+        <f>VLOOKUP(D34,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="K34" s="9">
+        <f>VLOOKUP(D34,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>11296</v>
+      </c>
+      <c r="L34" s="9" t="str">
+        <f>VLOOKUP(D34,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>RADLEX</v>
+      </c>
+      <c r="M34" s="8">
+        <f>VLOOKUP(D34,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="N34" s="7" t="str">
+        <f>VLOOKUP(D34,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="O34" s="6" t="str">
+        <f>VLOOKUP(D34,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>None</v>
+      </c>
+      <c r="P34" s="5" t="str">
+        <f>VLOOKUP(D34,[1]!Colors[#All],3,FALSE)</f>
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q34" s="3" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R34" s="4" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S34" s="2" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T34" s="3" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U34" s="2" t="str">
+        <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -14334,7 +14547,7 @@
   </sheetPr>
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/External Beam Templates/Structure Templates/Template Spreadsheets/Pelvis Templates.xlsx
+++ b/External Beam Templates/Structure Templates/Template Spreadsheets/Pelvis Templates.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dkphysicspv1\e$\Gregs_Work\Eclipse\Template Management\External Beam Templates\Structure Templates\Template Spreadsheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="525" windowWidth="18780" windowHeight="9885" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="420" yWindow="525" windowWidth="18780" windowHeight="9885" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Pelvis Anatomy General" sheetId="1" r:id="rId1"/>
@@ -25,12 +30,12 @@
   <externalReferences>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="331">
   <si>
     <t>Sacral plexus</t>
   </si>
@@ -1014,6 +1019,15 @@
   </si>
   <si>
     <t>PTV low Risk</t>
+  </si>
+  <si>
+    <t>Body - PTV</t>
+  </si>
+  <si>
+    <t>Body-PTV 36</t>
+  </si>
+  <si>
+    <t>Liver</t>
   </si>
 </sst>
 </file>
@@ -5168,7 +5182,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table53335394954" displayName="Table53335394954" ref="D2:H24" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table53335394954" displayName="Table53335394954" ref="D2:H25" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="5">
     <tableColumn id="1" name="Structure" dataDxfId="17"/>
     <tableColumn id="2" name="ID" dataDxfId="16"/>
@@ -5191,7 +5205,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table5333539494490" displayName="Table5333539494490" ref="D2:H38" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table5333539494490" displayName="Table5333539494490" ref="D2:H39" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <sortState ref="D3:H40">
     <sortCondition ref="E3:E40"/>
     <sortCondition ref="F3:F40"/>
@@ -5324,7 +5338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5359,7 +5373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10807,8 +10821,8 @@
   </sheetPr>
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12980,10 +12994,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13723,43 +13737,43 @@
         <v>24</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>6</v>
+        <v>328</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>208</v>
+        <v>329</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>204</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="21"/>
       <c r="J12" s="19" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>External genitalia</v>
-      </c>
-      <c r="K12" s="18">
+        <v>Body sub PTVs</v>
+      </c>
+      <c r="K12" s="18" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>45643</v>
+        <v>body-ptvs</v>
       </c>
       <c r="L12" s="18" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M12" s="17" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N12" s="16" t="str">
         <f>VLOOKUP(D12,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
+        <v>Control</v>
       </c>
       <c r="O12" s="15" t="str">
         <f>VLOOKUP(D12,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
+        <v>Avoidance</v>
       </c>
       <c r="P12" s="14" t="str">
         <f>VLOOKUP(D12,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Genitalia</v>
+        <v>z Old Body</v>
       </c>
       <c r="Q12" s="12" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -13790,23 +13804,23 @@
         <v>20</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>208</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="21"/>
       <c r="J13" s="19" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Small intestine</v>
+        <v>External genitalia</v>
       </c>
       <c r="K13" s="18">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7200</v>
+        <v>45643</v>
       </c>
       <c r="L13" s="18" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],5,FALSE)</f>
@@ -13826,7 +13840,7 @@
       </c>
       <c r="P13" s="14" t="str">
         <f>VLOOKUP(D13,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Small Bowel</v>
+        <v>z Genitalia</v>
       </c>
       <c r="Q13" s="12" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -13853,23 +13867,23 @@
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="D14" s="36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="21"/>
       <c r="J14" s="19" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Large intestine</v>
+        <v>Small intestine</v>
       </c>
       <c r="K14" s="18">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="L14" s="18" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],5,FALSE)</f>
@@ -13889,7 +13903,7 @@
       </c>
       <c r="P14" s="14" t="str">
         <f>VLOOKUP(D14,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Large Bowel</v>
+        <v>z Small Bowel</v>
       </c>
       <c r="Q14" s="12" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -13914,23 +13928,23 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D15" s="36" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>206</v>
+        <v>23</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>207</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="21"/>
       <c r="J15" s="19" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Head of right femur</v>
+        <v>Large intestine</v>
       </c>
       <c r="K15" s="18">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>55011</v>
+        <v>7201</v>
       </c>
       <c r="L15" s="18" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],5,FALSE)</f>
@@ -13950,7 +13964,7 @@
       </c>
       <c r="P15" s="14" t="str">
         <f>VLOOKUP(D15,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Femoral Head R</v>
+        <v>z Large Bowel</v>
       </c>
       <c r="Q15" s="12" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -13975,23 +13989,23 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D16" s="36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="21"/>
       <c r="J16" s="19" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Head of left femur</v>
+        <v>Head of right femur</v>
       </c>
       <c r="K16" s="18">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>55012</v>
+        <v>55011</v>
       </c>
       <c r="L16" s="18" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],5,FALSE)</f>
@@ -14011,7 +14025,7 @@
       </c>
       <c r="P16" s="14" t="str">
         <f>VLOOKUP(D16,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Femoral Head L</v>
+        <v>z Femoral Head R</v>
       </c>
       <c r="Q16" s="12" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -14036,23 +14050,23 @@
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="36" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="21"/>
       <c r="J17" s="19" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Urinary bladder</v>
+        <v>Head of left femur</v>
       </c>
       <c r="K17" s="18">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>15900</v>
+        <v>55012</v>
       </c>
       <c r="L17" s="18" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],5,FALSE)</f>
@@ -14072,7 +14086,7 @@
       </c>
       <c r="P17" s="14" t="str">
         <f>VLOOKUP(D17,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Bladder</v>
+        <v>z Femoral Head L</v>
       </c>
       <c r="Q17" s="12" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -14086,54 +14100,54 @@
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="12" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>20</v>
-      </c>
-      <c r="U17" s="11">
+        <v/>
+      </c>
+      <c r="U17" s="11" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>80</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="36" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="21"/>
       <c r="J18" s="19" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Undefined Normal Tissue</v>
-      </c>
-      <c r="K18" s="18" t="str">
+        <v>Urinary bladder</v>
+      </c>
+      <c r="K18" s="18">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>NormalTissue</v>
+        <v>15900</v>
       </c>
       <c r="L18" s="18" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
+        <v>FMA</v>
       </c>
       <c r="M18" s="17" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.2</v>
       </c>
       <c r="N18" s="16" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Control</v>
+        <v>Organ</v>
       </c>
       <c r="O18" s="15" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Avoidance</v>
+        <v>Organ</v>
       </c>
       <c r="P18" s="14" t="str">
         <f>VLOOKUP(D18,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Normal Tissue</v>
+        <v>z Bladder</v>
       </c>
       <c r="Q18" s="12" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -14147,54 +14161,54 @@
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T18" s="12" t="str">
+      <c r="T18" s="12">
         <f>IFERROR(VLOOKUP(D18,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U18" s="11" t="str">
+        <v>20</v>
+      </c>
+      <c r="U18" s="11">
         <f>IFERROR(VLOOKUP(D18,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>15</v>
+        <v>204</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="21"/>
       <c r="J19" s="19" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right ilium</v>
-      </c>
-      <c r="K19" s="18">
+        <v>Undefined Normal Tissue</v>
+      </c>
+      <c r="K19" s="18" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>16590</v>
+        <v>NormalTissue</v>
       </c>
       <c r="L19" s="18" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M19" s="17" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N19" s="16" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
+        <v>Control</v>
       </c>
       <c r="O19" s="15" t="str">
         <f>VLOOKUP(D19,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
+        <v>Avoidance</v>
       </c>
       <c r="P19" s="14" t="str">
         <f>VLOOKUP(D19,[1]!Colors[#All],3,FALSE)</f>
-        <v>z iliac crest L</v>
+        <v>z Normal Tissue</v>
       </c>
       <c r="Q19" s="12" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -14208,34 +14222,34 @@
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="12" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>200</v>
-      </c>
-      <c r="U19" s="11">
+        <v/>
+      </c>
+      <c r="U19" s="11" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>2500</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="21"/>
       <c r="J20" s="19" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left ilium</v>
+        <v>Right ilium</v>
       </c>
       <c r="K20" s="18">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>16591</v>
+        <v>16590</v>
       </c>
       <c r="L20" s="18" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],5,FALSE)</f>
@@ -14255,7 +14269,7 @@
       </c>
       <c r="P20" s="14" t="str">
         <f>VLOOKUP(D20,[1]!Colors[#All],3,FALSE)</f>
-        <v>z iliac crest R</v>
+        <v>z iliac crest L</v>
       </c>
       <c r="Q20" s="12" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -14280,43 +14294,43 @@
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>199</v>
+        <v>14</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>14</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="21"/>
       <c r="J21" s="19" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV High Risk</v>
-      </c>
-      <c r="K21" s="18" t="str">
+        <v>Left ilium</v>
+      </c>
+      <c r="K21" s="18">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_High</v>
+        <v>16591</v>
       </c>
       <c r="L21" s="18" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
+        <v>FMA</v>
       </c>
       <c r="M21" s="17" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.2</v>
       </c>
       <c r="N21" s="16" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Organ</v>
       </c>
       <c r="O21" s="15" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>Organ</v>
       </c>
       <c r="P21" s="14" t="str">
         <f>VLOOKUP(D21,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV</v>
+        <v>z iliac crest R</v>
       </c>
       <c r="Q21" s="12" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -14330,54 +14344,54 @@
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T21" s="12" t="str">
+      <c r="T21" s="12">
         <f>IFERROR(VLOOKUP(D21,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U21" s="11" t="str">
+        <v>200</v>
+      </c>
+      <c r="U21" s="11">
         <f>IFERROR(VLOOKUP(D21,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
+        <v>2500</v>
       </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="36" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="21"/>
       <c r="J22" s="19" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="K22" s="18">
+        <v>PTV High Risk</v>
+      </c>
+      <c r="K22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
+        <v>PTV_High</v>
       </c>
       <c r="L22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M22" s="17">
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="M22" s="17" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
+        <v>1.0</v>
       </c>
       <c r="N22" s="16" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
+        <v>PTV</v>
       </c>
       <c r="O22" s="15" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
+        <v>PTV</v>
       </c>
       <c r="P22" s="14" t="str">
         <f>VLOOKUP(D22,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
+        <v>z PTV</v>
       </c>
       <c r="Q22" s="12" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -14405,7 +14419,7 @@
         <v>107</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>105</v>
@@ -14461,64 +14475,125 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="36" t="s">
         <v>107</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="21"/>
-      <c r="J24" s="10" t="str">
+      <c r="J24" s="19" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="18">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="L24" s="9" t="str">
+      <c r="L24" s="18" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="17">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="N24" s="7" t="str">
+      <c r="N24" s="16" t="str">
         <f>VLOOKUP(D24,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="O24" s="6" t="str">
+      <c r="O24" s="15" t="str">
         <f>VLOOKUP(D24,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="P24" s="5" t="str">
+      <c r="P24" s="14" t="str">
         <f>VLOOKUP(D24,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="Q24" s="3" t="str">
+      <c r="Q24" s="12" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R24" s="4" t="str">
+      <c r="R24" s="13" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S24" s="2" t="str">
+      <c r="S24" s="11" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T24" s="3" t="str">
+      <c r="T24" s="12" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U24" s="2" t="str">
+      <c r="U24" s="11" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="21"/>
+      <c r="J25" s="10" t="str">
+        <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="K25" s="9">
+        <f>VLOOKUP(D25,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>11296</v>
+      </c>
+      <c r="L25" s="9" t="str">
+        <f>VLOOKUP(D25,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>RADLEX</v>
+      </c>
+      <c r="M25" s="8">
+        <f>VLOOKUP(D25,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="N25" s="7" t="str">
+        <f>VLOOKUP(D25,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="O25" s="6" t="str">
+        <f>VLOOKUP(D25,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>None</v>
+      </c>
+      <c r="P25" s="5" t="str">
+        <f>VLOOKUP(D25,[1]!Colors[#All],3,FALSE)</f>
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q25" s="3" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R25" s="4" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S25" s="2" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T25" s="3" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U25" s="2" t="str">
+        <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -14545,10 +14620,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15665,23 +15740,23 @@
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="40" t="s">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>83</v>
+        <v>330</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="21"/>
       <c r="J18" s="19" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right external iliac lymphatic chain</v>
+        <v>Liver</v>
       </c>
       <c r="K18" s="18">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>229179</v>
+        <v>7197</v>
       </c>
       <c r="L18" s="18" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],5,FALSE)</f>
@@ -15693,15 +15768,15 @@
       </c>
       <c r="N18" s="16" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>Organ</v>
       </c>
       <c r="O18" s="15" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>Organ</v>
       </c>
       <c r="P18" s="14" t="str">
         <f>VLOOKUP(D18,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode extiliac L</v>
+        <v>z Liver</v>
       </c>
       <c r="Q18" s="12" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -15726,23 +15801,23 @@
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="21"/>
       <c r="J19" s="19" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left external iliac lymphatic chain</v>
+        <v>Right external iliac lymphatic chain</v>
       </c>
       <c r="K19" s="18">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>229181</v>
+        <v>229179</v>
       </c>
       <c r="L19" s="18" t="str">
         <f>VLOOKUP(D19,[1]!Dictionary[#All],5,FALSE)</f>
@@ -15762,7 +15837,7 @@
       </c>
       <c r="P19" s="14" t="str">
         <f>VLOOKUP(D19,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode extiliac R</v>
+        <v>zNode extiliac L</v>
       </c>
       <c r="Q19" s="12" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -15787,23 +15862,23 @@
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="40" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="21"/>
       <c r="J20" s="19" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left internal iliac lymphatic chain</v>
+        <v>Left external iliac lymphatic chain</v>
       </c>
       <c r="K20" s="18">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>224279</v>
+        <v>229181</v>
       </c>
       <c r="L20" s="18" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],5,FALSE)</f>
@@ -15823,7 +15898,7 @@
       </c>
       <c r="P20" s="14" t="str">
         <f>VLOOKUP(D20,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode Intiliac L</v>
+        <v>zNode extiliac R</v>
       </c>
       <c r="Q20" s="12" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -15848,23 +15923,23 @@
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="21"/>
       <c r="J21" s="19" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right internal iliac lymphatic chain</v>
+        <v>Left internal iliac lymphatic chain</v>
       </c>
       <c r="K21" s="18">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>224277</v>
+        <v>224279</v>
       </c>
       <c r="L21" s="18" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],5,FALSE)</f>
@@ -15884,7 +15959,7 @@
       </c>
       <c r="P21" s="14" t="str">
         <f>VLOOKUP(D21,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode Intiliac R</v>
+        <v>zNode Intiliac L</v>
       </c>
       <c r="Q21" s="12" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -15909,23 +15984,23 @@
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D22" s="40" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="21"/>
       <c r="J22" s="19" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Parietal lumbar lymph node</v>
-      </c>
-      <c r="K22" s="18" t="str">
+        <v>Right internal iliac lymphatic chain</v>
+      </c>
+      <c r="K22" s="18">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>84599</v>
+        <v>224277</v>
       </c>
       <c r="L22" s="18" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],5,FALSE)</f>
@@ -15945,7 +16020,7 @@
       </c>
       <c r="P22" s="14" t="str">
         <f>VLOOKUP(D22,[1]!Colors[#All],3,FALSE)</f>
-        <v>zNode ParaAortic</v>
+        <v>zNode Intiliac R</v>
       </c>
       <c r="Q22" s="12" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -15970,55 +16045,55 @@
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D23" s="40" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="21"/>
       <c r="J23" s="19" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Bladder sub PTVs</v>
+        <v>Parietal lumbar lymph node</v>
       </c>
       <c r="K23" s="18" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>bladder-ptvs</v>
+        <v>84599</v>
       </c>
       <c r="L23" s="18" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
+        <v>FMA</v>
       </c>
       <c r="M23" s="17" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.2</v>
       </c>
       <c r="N23" s="16" t="str">
         <f>VLOOKUP(D23,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Control</v>
+        <v>CTV</v>
       </c>
       <c r="O23" s="15" t="str">
         <f>VLOOKUP(D23,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Avoidance</v>
+        <v>Nodes</v>
       </c>
       <c r="P23" s="14" t="str">
         <f>VLOOKUP(D23,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Bladder</v>
-      </c>
-      <c r="Q23" s="12">
+        <v>zNode ParaAortic</v>
+      </c>
+      <c r="Q23" s="12" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R23" s="13">
+        <v/>
+      </c>
+      <c r="R23" s="13" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="S23" s="11">
+        <v/>
+      </c>
+      <c r="S23" s="11" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="T23" s="12" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -16031,31 +16106,31 @@
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D24" s="40" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="21"/>
       <c r="J24" s="19" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Bone marrow</v>
-      </c>
-      <c r="K24" s="18">
+        <v>Bladder sub PTVs</v>
+      </c>
+      <c r="K24" s="18" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>9608</v>
+        <v>bladder-ptvs</v>
       </c>
       <c r="L24" s="18" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M24" s="17" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N24" s="16" t="str">
         <f>VLOOKUP(D24,[1]!VolumeType[#All],2,FALSE)</f>
@@ -16067,19 +16142,19 @@
       </c>
       <c r="P24" s="14" t="str">
         <f>VLOOKUP(D24,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Bone Marrow opt</v>
-      </c>
-      <c r="Q24" s="12" t="str">
+        <v>z Bladder</v>
+      </c>
+      <c r="Q24" s="12">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R24" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R24" s="13">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S24" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="S24" s="11">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T24" s="12" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -16092,23 +16167,23 @@
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="40" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="21"/>
       <c r="J25" s="19" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Intestine</v>
+        <v>Bone marrow</v>
       </c>
       <c r="K25" s="18">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7199</v>
+        <v>9608</v>
       </c>
       <c r="L25" s="18" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16128,19 +16203,19 @@
       </c>
       <c r="P25" s="14" t="str">
         <f>VLOOKUP(D25,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Bowel</v>
-      </c>
-      <c r="Q25" s="12">
+        <v>z Bone Marrow opt</v>
+      </c>
+      <c r="Q25" s="12" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="R25" s="13">
+        <v/>
+      </c>
+      <c r="R25" s="13" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="S25" s="11">
+        <v/>
+      </c>
+      <c r="S25" s="11" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="T25" s="12" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -16153,23 +16228,23 @@
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="40" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="21"/>
       <c r="J26" s="19" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Rectum</v>
+        <v>Intestine</v>
       </c>
       <c r="K26" s="18">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>14544</v>
+        <v>7199</v>
       </c>
       <c r="L26" s="18" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16189,7 +16264,7 @@
       </c>
       <c r="P26" s="14" t="str">
         <f>VLOOKUP(D26,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Rectum</v>
+        <v>z Bowel</v>
       </c>
       <c r="Q26" s="12">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16214,23 +16289,23 @@
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="40" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="21"/>
       <c r="J27" s="19" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Presacral space</v>
+        <v>Rectum</v>
       </c>
       <c r="K27" s="18">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>265331</v>
+        <v>14544</v>
       </c>
       <c r="L27" s="18" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16242,27 +16317,27 @@
       </c>
       <c r="N27" s="16" t="str">
         <f>VLOOKUP(D27,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
+        <v>Control</v>
       </c>
       <c r="O27" s="15" t="str">
         <f>VLOOKUP(D27,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
+        <v>Avoidance</v>
       </c>
       <c r="P27" s="14" t="str">
         <f>VLOOKUP(D27,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PresacralSpace</v>
-      </c>
-      <c r="Q27" s="12" t="str">
+        <v>z Rectum</v>
+      </c>
+      <c r="Q27" s="12">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R27" s="13" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="R27" s="13">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S27" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="S27" s="11">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T27" s="12" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -16275,43 +16350,43 @@
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="40" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="21"/>
       <c r="J28" s="19" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
-      </c>
-      <c r="K28" s="18" t="str">
+        <v>Presacral space</v>
+      </c>
+      <c r="K28" s="18">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>265331</v>
       </c>
       <c r="L28" s="18" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
+        <v>FMA</v>
       </c>
       <c r="M28" s="17" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.2</v>
       </c>
       <c r="N28" s="16" t="str">
         <f>VLOOKUP(D28,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Organ</v>
       </c>
       <c r="O28" s="15" t="str">
         <f>VLOOKUP(D28,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>Organ</v>
       </c>
       <c r="P28" s="14" t="str">
         <f>VLOOKUP(D28,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int</v>
+        <v>z PresacralSpace</v>
       </c>
       <c r="Q28" s="12" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16336,13 +16411,13 @@
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="40" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="21"/>
@@ -16397,23 +16472,23 @@
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D30" s="40" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="21"/>
       <c r="J30" s="19" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV High Risk</v>
+        <v>PTV Intermediate Risk</v>
       </c>
       <c r="K30" s="18" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_High</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="L30" s="18" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16433,7 +16508,7 @@
       </c>
       <c r="P30" s="14" t="str">
         <f>VLOOKUP(D30,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV</v>
+        <v>z PTV int</v>
       </c>
       <c r="Q30" s="12" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16458,43 +16533,43 @@
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D31" s="40" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="21"/>
       <c r="J31" s="19" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Rectum</v>
-      </c>
-      <c r="K31" s="18">
+        <v>PTV High Risk</v>
+      </c>
+      <c r="K31" s="18" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>14544</v>
+        <v>PTV_High</v>
       </c>
       <c r="L31" s="18" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="M31" s="17" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="N31" s="16" t="str">
         <f>VLOOKUP(D31,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
+        <v>PTV</v>
       </c>
       <c r="O31" s="15" t="str">
         <f>VLOOKUP(D31,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
+        <v>PTV</v>
       </c>
       <c r="P31" s="14" t="str">
         <f>VLOOKUP(D31,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Rectum</v>
+        <v>z PTV</v>
       </c>
       <c r="Q31" s="12" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16508,34 +16583,34 @@
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T31" s="12">
+      <c r="T31" s="12" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>-20</v>
-      </c>
-      <c r="U31" s="11">
+        <v/>
+      </c>
+      <c r="U31" s="11" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>40</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D32" s="40" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="21"/>
       <c r="J32" s="19" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Small intestine</v>
+        <v>Rectum</v>
       </c>
       <c r="K32" s="18">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7200</v>
+        <v>14544</v>
       </c>
       <c r="L32" s="18" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16555,7 +16630,7 @@
       </c>
       <c r="P32" s="14" t="str">
         <f>VLOOKUP(D32,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Small Bowel</v>
+        <v>z Rectum</v>
       </c>
       <c r="Q32" s="12" t="str">
         <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16569,34 +16644,34 @@
         <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T32" s="12" t="str">
+      <c r="T32" s="12">
         <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U32" s="11" t="str">
+        <v>-20</v>
+      </c>
+      <c r="U32" s="11">
         <f>IFERROR(VLOOKUP(D32,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="40" t="s">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="21"/>
       <c r="J33" s="19" t="str">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Spinal cord</v>
+        <v>Small intestine</v>
       </c>
       <c r="K33" s="18">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7647</v>
+        <v>7200</v>
       </c>
       <c r="L33" s="18" t="str">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16616,7 +16691,7 @@
       </c>
       <c r="P33" s="14" t="str">
         <f>VLOOKUP(D33,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Spinal Canal</v>
+        <v>z Small Bowel</v>
       </c>
       <c r="Q33" s="12" t="str">
         <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16630,34 +16705,34 @@
         <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T33" s="12">
+      <c r="T33" s="12" t="str">
         <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>20</v>
-      </c>
-      <c r="U33" s="11">
+        <v/>
+      </c>
+      <c r="U33" s="11" t="str">
         <f>IFERROR(VLOOKUP(D33,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>40</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D34" s="40" t="s">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="21"/>
       <c r="J34" s="19" t="str">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Vagina</v>
+        <v>Spinal cord</v>
       </c>
       <c r="K34" s="18">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>19949</v>
+        <v>7647</v>
       </c>
       <c r="L34" s="18" t="str">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16677,7 +16752,7 @@
       </c>
       <c r="P34" s="14" t="str">
         <f>VLOOKUP(D34,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Vagina</v>
+        <v>z Spinal Canal</v>
       </c>
       <c r="Q34" s="12" t="str">
         <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16691,13 +16766,13 @@
         <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T34" s="12" t="str">
+      <c r="T34" s="12">
         <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="U34" s="11" t="str">
+        <v>20</v>
+      </c>
+      <c r="U34" s="11">
         <f>IFERROR(VLOOKUP(D34,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.25">
@@ -16705,10 +16780,10 @@
         <v>78</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G35" s="37"/>
       <c r="H35" s="21"/>
@@ -16763,43 +16838,43 @@
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D36" s="40" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="G36" s="37"/>
       <c r="H36" s="21"/>
       <c r="J36" s="19" t="str">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
+        <v>Vagina</v>
       </c>
       <c r="K36" s="18">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
+        <v>19949</v>
       </c>
       <c r="L36" s="18" t="str">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="M36" s="17">
+        <v>FMA</v>
+      </c>
+      <c r="M36" s="17" t="str">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N36" s="16" t="str">
         <f>VLOOKUP(D36,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
+        <v>Organ</v>
       </c>
       <c r="O36" s="15" t="str">
         <f>VLOOKUP(D36,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
+        <v>Organ</v>
       </c>
       <c r="P36" s="14" t="str">
         <f>VLOOKUP(D36,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
+        <v>z Vagina</v>
       </c>
       <c r="Q36" s="12" t="str">
         <f>IFERROR(VLOOKUP(D36,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16827,7 +16902,7 @@
         <v>107</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F37" s="38" t="s">
         <v>105</v>
@@ -16883,64 +16958,125 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="1" t="s">
+    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D38" s="40" t="s">
         <v>107</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F38" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G38" s="37"/>
       <c r="H38" s="21"/>
-      <c r="J38" s="10" t="str">
+      <c r="J38" s="19" t="str">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="18">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="L38" s="9" t="str">
+      <c r="L38" s="18" t="str">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="17">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="N38" s="7" t="str">
+      <c r="N38" s="16" t="str">
         <f>VLOOKUP(D38,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="O38" s="6" t="str">
+      <c r="O38" s="15" t="str">
         <f>VLOOKUP(D38,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="P38" s="5" t="str">
+      <c r="P38" s="14" t="str">
         <f>VLOOKUP(D38,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="Q38" s="3" t="str">
+      <c r="Q38" s="12" t="str">
         <f>IFERROR(VLOOKUP(D38,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R38" s="4" t="str">
+      <c r="R38" s="13" t="str">
         <f>IFERROR(VLOOKUP(D38,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S38" s="2" t="str">
+      <c r="S38" s="11" t="str">
         <f>IFERROR(VLOOKUP(D38,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T38" s="3" t="str">
+      <c r="T38" s="12" t="str">
         <f>IFERROR(VLOOKUP(D38,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="U38" s="2" t="str">
+      <c r="U38" s="11" t="str">
         <f>IFERROR(VLOOKUP(D38,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="37"/>
+      <c r="H39" s="21"/>
+      <c r="J39" s="10" t="str">
+        <f>VLOOKUP(D39,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="K39" s="9">
+        <f>VLOOKUP(D39,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>11296</v>
+      </c>
+      <c r="L39" s="9" t="str">
+        <f>VLOOKUP(D39,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>RADLEX</v>
+      </c>
+      <c r="M39" s="8">
+        <f>VLOOKUP(D39,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="N39" s="7" t="str">
+        <f>VLOOKUP(D39,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="O39" s="6" t="str">
+        <f>VLOOKUP(D39,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>None</v>
+      </c>
+      <c r="P39" s="5" t="str">
+        <f>VLOOKUP(D39,[1]!Colors[#All],3,FALSE)</f>
+        <v>z RO Helper</v>
+      </c>
+      <c r="Q39" s="3" t="str">
+        <f>IFERROR(VLOOKUP(D39,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R39" s="4" t="str">
+        <f>IFERROR(VLOOKUP(D39,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S39" s="2" t="str">
+        <f>IFERROR(VLOOKUP(D39,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T39" s="3" t="str">
+        <f>IFERROR(VLOOKUP(D39,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="U39" s="2" t="str">
+        <f>IFERROR(VLOOKUP(D39,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -22116,7 +22252,7 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
